--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D42535-72E3-4907-967C-547D16364B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF10F2-773E-494B-A4DF-49C3C46A9326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
     <sheet name="베르세르크" sheetId="9" r:id="rId2"/>
-    <sheet name="가디언" sheetId="11" r:id="rId3"/>
-    <sheet name="팔라딘" sheetId="12" r:id="rId4"/>
+    <sheet name="팔라딘" sheetId="12" r:id="rId3"/>
+    <sheet name="가디언" sheetId="11" r:id="rId4"/>
     <sheet name="레인저" sheetId="13" r:id="rId5"/>
     <sheet name="소서러" sheetId="14" r:id="rId6"/>
     <sheet name="어쌔신" sheetId="15" r:id="rId7"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="249">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -875,7 +875,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 증가 및 이속 감소</t>
+    <t>방패던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 비례 원거리 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n턴 방어력 증가 및 이속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갑옷파괴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n턴 이속증가 방어력하향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단은 튀는용도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패던지기 연계기느낌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패떨구기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대방적이동속도감소 + 약간데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기주변 아군대폭 방어력증가 및 이속감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정범위 원하는방향 1자로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n턴간 도트데미지 (기존함정은 파괴후 다시 설치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리비례데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넉백샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까운거리데미지 주고 보스와 자신 일정거리 넉백</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러갈래로 총퍼짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 개 길음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n턴간 1=1.1배, 6=1.6배 공격력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정텔레포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변딜 + n턴간 공벞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어쌔신 센스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉴드 폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉘 브레이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그레비티 폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인게이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프레이 샷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스나이핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트래핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래플링 훅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +1093,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1426,13 +1558,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1568,6 +1833,39 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1619,6 +1917,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1641,24 +1957,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -1700,13 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1966,30 +2258,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>189547</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
+        <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD643DF-86CA-7FAF-B3F3-4004548C5345}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B9493E-DAFC-57F6-0379-4B653C72DF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,15 +2285,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4552951" y="590550"/>
-          <a:ext cx="742950" cy="780097"/>
+          <a:off x="10172700" y="5876925"/>
+          <a:ext cx="438150" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,23 +2310,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>347630</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>80361</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>148239</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7">
+        <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86D4FCB-6763-47CA-894A-6E05D6B7662E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801EE8A2-7FD5-F1B6-F9C6-884DBA475D3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,15 +2335,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4548155" y="1471011"/>
-          <a:ext cx="795370" cy="1534728"/>
+          <a:off x="9953625" y="6905625"/>
+          <a:ext cx="466725" cy="466725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2061,23 +2360,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>281982</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그림 8">
+        <xdr:cNvPr id="11" name="그림 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B00E8C1-0FF8-ED14-84C8-DCA5B2DC5CEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C405C367-6FCC-1EA4-A8EE-A2F95F7DC6A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,15 +2385,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419101" y="514350"/>
-          <a:ext cx="2600324" cy="4349157"/>
+          <a:off x="9934575" y="6400800"/>
+          <a:ext cx="476250" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2105,23 +2410,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63176</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
+        <xdr:cNvPr id="13" name="그림 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812AFA4D-6930-4F3C-8D13-C930D1663358}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28773475-B7EF-3BF9-5C2A-A8B4D3D7AB5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2129,15 +2434,272 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:srcRect l="12820" t="13579" r="15385" b="70434"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210050" y="3457575"/>
-          <a:ext cx="1371600" cy="510851"/>
+          <a:off x="9953625" y="7400925"/>
+          <a:ext cx="476250" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B552A535-FFFD-6CCD-5B25-D3553086BF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9972675" y="7915275"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3BCC2B2-908D-D55E-7BFB-A9BDD8DF617D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10182225" y="8477250"/>
+          <a:ext cx="428625" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF3AC43-F02D-ED45-FCC8-53B118AEB5F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10172700" y="8943975"/>
+          <a:ext cx="495300" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B658F00-AE0B-984F-B694-4EC502A91F67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10134600" y="9439275"/>
+          <a:ext cx="514350" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB09927B-D763-F738-4D4F-EE0F7F6DDAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="9972674"/>
+          <a:ext cx="504825" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2149,7 +2711,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2448,6 +3010,1031 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="600075" cy="600075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2828EB46-4257-4B84-AF80-ADE4C8E4E42E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10858500" y="5638799"/>
+          <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>628649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCEFE28F-BA43-6292-10A5-09EC796DCE5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="9410699"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>619124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670A297B-CA97-FBC7-EE98-A286F6A4D211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="6276974"/>
+          <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>571499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8A4512-5A20-B28B-AACF-61838BC919DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="6934199"/>
+          <a:ext cx="523875" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E6C39B-95F6-48AB-C546-071F643E80E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887075" y="8172450"/>
+          <a:ext cx="552450" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36C7808C-A0C0-8065-D5FB-F49487A3EE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="7562851"/>
+          <a:ext cx="542924" cy="542924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>628649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B043F89-9599-B332-E855-30905734B22F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="8820149"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048788DD-64C6-2A4D-4848-F955A06818A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10906125" y="10086975"/>
+          <a:ext cx="514350" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>609600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F023C4-FA44-3068-0D25-4C277534C460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10868025" y="10696575"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>189547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD643DF-86CA-7FAF-B3F3-4004548C5345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4552951" y="590550"/>
+          <a:ext cx="742950" cy="780097"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347630</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>80361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>148239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86D4FCB-6763-47CA-894A-6E05D6B7662E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4548155" y="1471011"/>
+          <a:ext cx="795370" cy="1534728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>281982</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B00E8C1-0FF8-ED14-84C8-DCA5B2DC5CEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419101" y="514350"/>
+          <a:ext cx="2600324" cy="4349157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812AFA4D-6930-4F3C-8D13-C930D1663358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="12820" t="13579" r="15385" b="70434"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4210050" y="3457575"/>
+          <a:ext cx="1371600" cy="510851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6A8C21-39EC-B1D9-DAAD-DE7023D8EA68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="5410200"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDEA6C9-1BDD-2497-1A0B-505FC61B6369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848975" y="6019800"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AECB6C-2A75-4348-A16A-692FEC4E8265}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="6629400"/>
+          <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31060</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>631135</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C8B5D4-1BA5-6039-0B72-AA092E1B2CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10848147" y="9071941"/>
+          <a:ext cx="600075" cy="603388"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596349</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>607167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD8226E1-CEAD-300D-A81C-4EB647429237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10817088" y="7836590"/>
+          <a:ext cx="596348" cy="597642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>662609</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFE61FE-DB2B-2A42-4125-C09F639CD218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10850218" y="8448260"/>
+          <a:ext cx="629478" cy="629478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588066</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>596349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239A8C3E-815E-2222-DE7C-9C4B09EBCFF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10833653" y="7239001"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>604631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94B0AB9-49DA-B74E-4A80-3FD5143152B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10841935" y="9690652"/>
+          <a:ext cx="579783" cy="579783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2611,6 +4198,406 @@
         <a:xfrm>
           <a:off x="4352925" y="647700"/>
           <a:ext cx="1028844" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="그림 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60DBAC7-120D-8097-38CC-41004C5A2B85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="5848350"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="그림 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C89C88-BE18-7548-BF35-5375068CBA6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="6477000"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="그림 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50D47F1-98C7-FADA-CFC2-598469B020B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982324" y="7067549"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="그림 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE36713-7718-3FC4-FFE0-FF4FC63210D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10982325" y="7696199"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="그림 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8423A502-9B3F-7CC3-D26F-FCCED7FDD884}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="8286750"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="그림 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CB57E9-0F43-1A23-8661-055B79D0FA94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10991850" y="8915400"/>
+          <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="그림 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DB2FED-EB94-DF61-3B41-BA1485D68A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="9496425"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="그림 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65476DCA-548C-602E-9328-A3B0A465DD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10963275" y="10086975"/>
+          <a:ext cx="609600" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3308,10 +5295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
-  <dimension ref="B2:J55"/>
+  <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A12:XFD20"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3352,10 +5339,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="67" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -3379,12 +5366,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="45"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -3394,12 +5381,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -3409,27 +5396,27 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="52"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" t="s">
         <v>190</v>
       </c>
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="45"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="2" t="s">
         <v>107</v>
       </c>
@@ -3439,12 +5426,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="2" t="s">
         <v>191</v>
       </c>
@@ -3454,12 +5441,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="52"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="63"/>
       <c r="H9" s="2" t="s">
         <v>106</v>
       </c>
@@ -3469,12 +5456,12 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="45"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="2" t="s">
         <v>187</v>
       </c>
@@ -3483,12 +5470,12 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="45"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="23" t="s">
         <v>194</v>
       </c>
@@ -3498,8 +5485,8 @@
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="67" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="4">
@@ -3523,12 +5510,12 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="45"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="2" t="s">
         <v>201</v>
       </c>
@@ -3538,12 +5525,12 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="63"/>
       <c r="H14" s="17" t="s">
         <v>197</v>
       </c>
@@ -3553,12 +5540,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="52"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="17" t="s">
         <v>210</v>
       </c>
@@ -3568,12 +5555,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="45"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
       <c r="H16" s="17" t="s">
         <v>205</v>
       </c>
@@ -3583,42 +5570,42 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="91" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="18" t="s">
         <v>209</v>
       </c>
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="91" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="91" t="s">
+      <c r="I18" s="18" t="s">
         <v>212</v>
       </c>
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="52"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="17" t="s">
         <v>207</v>
       </c>
@@ -3628,12 +5615,12 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="45"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="23" t="s">
         <v>110</v>
       </c>
@@ -3643,8 +5630,8 @@
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
-      <c r="C21" s="56" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="67" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="4">
@@ -3668,541 +5655,663 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
       <c r="H22" s="6" t="s">
         <v>214</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="J22" s="19"/>
+        <v>217</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="19"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>224</v>
+      </c>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="19"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>225</v>
+      </c>
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="90"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="2" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="46"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="23" t="s">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="57"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="23"/>
-    </row>
-    <row r="30" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C29" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D29" s="4">
         <v>3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F29" s="4">
         <v>10</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G29" s="4">
         <v>5</v>
       </c>
+      <c r="H29" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="19"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="56"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="46"/>
       <c r="H30" s="19" t="s">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="2" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="19"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="56"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" s="19"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="56"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J33" s="19"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="56"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="19"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="56"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="45"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="23" t="s">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="56"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I36" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="56" t="s">
+      <c r="J36" s="23"/>
+    </row>
+    <row r="37" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="56"/>
+      <c r="C37" s="67" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D37" s="4">
         <v>3</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E37" s="4">
         <v>4</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F37" s="4">
         <v>10</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G37" s="4">
         <v>3</v>
       </c>
-      <c r="H33" s="19" t="s">
+      <c r="H37" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="19" t="s">
+      <c r="I37" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J33" s="19"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="2" t="s">
+      <c r="J37" s="19"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="56"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="2" t="s">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="56"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="I36" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J37" s="56"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="45"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J38" s="56"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="56"/>
+      <c r="J39" s="69" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="52"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="2" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="56"/>
-    </row>
-    <row r="41" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="45"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="23" t="s">
-        <v>48</v>
+      <c r="J40" s="67"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="56"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="59"/>
-    </row>
-    <row r="42" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="56" t="s">
+      <c r="J41" s="67"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="56"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="56"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J43" s="67"/>
+    </row>
+    <row r="44" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="56"/>
+      <c r="C44" s="68"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J44" s="70"/>
+    </row>
+    <row r="45" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="56"/>
+      <c r="C45" s="67" t="s">
         <v>173</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D45" s="4">
         <v>5</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E45" s="4">
         <v>4</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F45" s="4">
         <v>4</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G45" s="4">
         <v>10</v>
       </c>
-      <c r="H42" s="19" t="s">
+      <c r="H45" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="19"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="56"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="56"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="56"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="56"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="56"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="45"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="45"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="45"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="45"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="45"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="2" t="s">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="56"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="46"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="23" t="s">
+      <c r="I51" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="57"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I48" s="23" t="s">
+      <c r="I52" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="23"/>
-    </row>
-    <row r="49" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="45" t="s">
+      <c r="J52" s="23"/>
+    </row>
+    <row r="53" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="60" t="s">
+      <c r="C53" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D53" s="4">
         <v>3</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E53" s="4">
         <v>3</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F53" s="4">
         <v>4</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G53" s="4">
         <v>7</v>
       </c>
-      <c r="H49" s="19" t="s">
+      <c r="H53" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="45"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="2" t="s">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="56"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="56"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="56"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I56" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="45"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="2" t="s">
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="56"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B52" s="45"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="21" t="s">
+      <c r="J57" s="2"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="56"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="45"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="2" t="s">
+      <c r="J58" s="2"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="56"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="46"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="23" t="s">
+      <c r="J59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="57"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J54" s="23"/>
-    </row>
-    <row r="55" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="J60" s="23"/>
+    </row>
+    <row r="61" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="D43:G48"/>
-    <mergeCell ref="D50:G54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C42:C48"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="B3:B29"/>
-    <mergeCell ref="B30:B48"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="D46:G52"/>
+    <mergeCell ref="D56:G60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="B3:B28"/>
+    <mergeCell ref="B29:B52"/>
     <mergeCell ref="D4:G11"/>
     <mergeCell ref="D13:G20"/>
-    <mergeCell ref="D31:G32"/>
+    <mergeCell ref="D35:G36"/>
     <mergeCell ref="C3:C11"/>
     <mergeCell ref="C12:C20"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C41"/>
-    <mergeCell ref="D34:G41"/>
-    <mergeCell ref="D22:G29"/>
+    <mergeCell ref="C21:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C37:C44"/>
+    <mergeCell ref="D38:G44"/>
+    <mergeCell ref="D22:G28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4405,10 +6514,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -4416,33 +6525,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="50"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="63"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="50"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="55"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="88"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -4450,8 +6559,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -4459,11 +6568,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -4472,36 +6581,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="50"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="56"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="50"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="56"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="50"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="56"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="50"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="57"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="68"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -4510,75 +6619,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="50"/>
-      <c r="C21" s="52"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="56" t="s">
+      <c r="E21" s="67" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="50"/>
-      <c r="C22" s="52"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="56"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="56"/>
+      <c r="E23" s="67"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
-      <c r="C24" s="52"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="67"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="52"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="67"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="50"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="67"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="70"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -4588,9 +6697,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="C29" s="52"/>
-      <c r="E29" s="82" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="63"/>
+      <c r="E29" s="93" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -4598,35 +6707,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="50"/>
-      <c r="C30" s="52"/>
-      <c r="E30" s="83"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="63"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="50"/>
-      <c r="C31" s="52"/>
-      <c r="E31" s="83"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="63"/>
+      <c r="E31" s="94"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="84"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="60"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -4634,8 +6743,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -4643,19 +6752,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="86"/>
+      <c r="C35" s="97"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="86"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -4787,10 +6896,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="67" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -4799,32 +6908,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="45"/>
-      <c r="C5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="45"/>
-      <c r="C6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="45"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45"/>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -4833,24 +6942,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="45"/>
-      <c r="C9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="45"/>
-      <c r="C11" s="56" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="67" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -4859,26 +6968,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="46"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="67" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -4887,24 +6996,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="45"/>
-      <c r="C15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="45"/>
-      <c r="C16" s="57"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="45"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="67" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -4913,64 +7022,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="45"/>
-      <c r="C18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="45"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="67"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="45"/>
-      <c r="C23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="45"/>
-      <c r="C24" s="57"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="67" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -4979,58 +7088,58 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="67"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="45"/>
-      <c r="C28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="67"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="67"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="45"/>
-      <c r="C30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="67"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="46"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="71" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -5039,82 +7148,82 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="60"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="45"/>
-      <c r="C35" s="60"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="45"/>
-      <c r="C36" s="60"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="46"/>
-      <c r="C37" s="61"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="71" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="45"/>
-      <c r="C39" s="60"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="71"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="60"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="45"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="71"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="45"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="71"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="46"/>
-      <c r="C43" s="61"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
@@ -5284,10 +7393,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27:Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5300,313 +7409,449 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+    </row>
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="62" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="62" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="62" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="53"/>
+    </row>
+    <row r="36" spans="12:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+      <c r="Q36" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5635,14 +7880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC063D3-B736-4A5E-899E-42CB0AB5C43B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF6FB9E-873D-4558-B1CE-99EC478B7124}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q26" sqref="N26:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5655,316 +7900,914 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="A1" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="G21" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="53"/>
+    </row>
+    <row r="28" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G7:I14"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC063D3-B736-4A5E-899E-42CB0AB5C43B}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:Q34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.625" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
+      <c r="B23" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-    </row>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L25" s="50"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O25" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P25" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q25" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="53"/>
+    </row>
+    <row r="27" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="53"/>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="55"/>
+      <c r="M31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L33" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="54"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
@@ -5992,15 +8835,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF6FB9E-873D-4558-B1CE-99EC478B7124}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A9288-1492-4004-B8CF-0C1472718162}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6013,673 +8856,430 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="47.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="A1" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
+      <c r="G15" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="G21" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="G7:I14"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A9288-1492-4004-B8CF-0C1472718162}">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="1.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="5.125" customWidth="1"/>
-    <col min="10" max="10" width="1.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
-        <v>168</v>
-      </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="C23" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6713,10 +9313,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:J24"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6729,315 +9329,430 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="13" max="13" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7071,10 +9786,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:J24"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7090,310 +9805,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7427,10 +10255,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7446,310 +10274,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="75"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="84"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="68"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="68"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="68"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="68"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="68"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="68"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="68"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="68"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="68"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="68"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="68"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="68"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51" t="s">
+      <c r="A15" s="82"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="68"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="68"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="68"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="68"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="68"/>
-    </row>
-    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="68"/>
-    </row>
-    <row r="22" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="68"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="83"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="69"/>
-    </row>
-    <row r="24" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="53"/>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="53"/>
+    </row>
+    <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L30" s="100" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="100" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="53"/>
+    </row>
+    <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="100" t="s">
+        <v>247</v>
+      </c>
+      <c r="M32" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="53"/>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -10983,8 +13924,8 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
-      <c r="Y50" s="78"/>
-      <c r="Z50" s="78"/>
+      <c r="Y50" s="89"/>
+      <c r="Z50" s="89"/>
       <c r="AA50" s="35"/>
       <c r="AB50" s="35"/>
       <c r="AC50" s="35"/>
@@ -11033,8 +13974,8 @@
       <c r="BT50" s="35"/>
       <c r="BU50" s="35"/>
       <c r="BV50" s="35"/>
-      <c r="BW50" s="78"/>
-      <c r="BX50" s="78"/>
+      <c r="BW50" s="89"/>
+      <c r="BX50" s="89"/>
       <c r="BY50" s="35"/>
       <c r="BZ50" s="35"/>
       <c r="CA50" s="35"/>
@@ -13758,8 +16699,8 @@
       <c r="V100" s="38"/>
       <c r="W100" s="38"/>
       <c r="X100" s="38"/>
-      <c r="Y100" s="77"/>
-      <c r="Z100" s="77"/>
+      <c r="Y100" s="88"/>
+      <c r="Z100" s="88"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="38"/>
       <c r="AC100" s="38"/>
@@ -13808,8 +16749,8 @@
       <c r="BT100" s="38"/>
       <c r="BU100" s="38"/>
       <c r="BV100" s="38"/>
-      <c r="BW100" s="77"/>
-      <c r="BX100" s="77"/>
+      <c r="BW100" s="88"/>
+      <c r="BX100" s="88"/>
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
       <c r="CA100" s="38"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YooRimKim\Desktop\GitHub\AtentsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EF10F2-773E-494B-A4DF-49C3C46A9326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D0AB8-F493-4555-B30C-B4734ED39F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="249">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1866,10 +1866,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1899,16 +1905,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1968,23 +1971,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,8 +1989,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5297,8 +5297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
   <dimension ref="B2:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5339,10 +5339,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -5366,12 +5366,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -5381,12 +5381,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -5396,12 +5396,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="2" t="s">
         <v>189</v>
       </c>
@@ -5411,12 +5411,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="2" t="s">
         <v>107</v>
       </c>
@@ -5426,12 +5426,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="2" t="s">
         <v>191</v>
       </c>
@@ -5441,12 +5441,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="2" t="s">
         <v>106</v>
       </c>
@@ -5456,12 +5456,12 @@
       <c r="J9" s="17"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
       <c r="H10" s="2" t="s">
         <v>187</v>
       </c>
@@ -5470,12 +5470,12 @@
       </c>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="56"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="23" t="s">
         <v>194</v>
       </c>
@@ -5485,8 +5485,8 @@
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="67" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D12" s="4">
@@ -5510,12 +5510,12 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="2" t="s">
         <v>201</v>
       </c>
@@ -5525,12 +5525,12 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="63"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="17" t="s">
         <v>197</v>
       </c>
@@ -5540,12 +5540,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="17" t="s">
         <v>210</v>
       </c>
@@ -5555,12 +5555,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="17" t="s">
         <v>205</v>
       </c>
@@ -5570,12 +5570,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="18" t="s">
         <v>199</v>
       </c>
@@ -5585,12 +5585,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="18" t="s">
         <v>211</v>
       </c>
@@ -5600,12 +5600,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="17" t="s">
         <v>207</v>
       </c>
@@ -5615,12 +5615,12 @@
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="56"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="23" t="s">
         <v>110</v>
       </c>
@@ -5630,8 +5630,8 @@
       <c r="J20" s="23"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
-      <c r="C21" s="67" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="4">
@@ -5655,12 +5655,12 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="6" t="s">
         <v>214</v>
       </c>
@@ -5672,12 +5672,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="6" t="s">
         <v>241</v>
       </c>
@@ -5689,12 +5689,12 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="6" t="s">
         <v>242</v>
       </c>
@@ -5706,12 +5706,12 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="63"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="6" t="s">
         <v>243</v>
       </c>
@@ -5721,12 +5721,12 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="63"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="6" t="s">
         <v>244</v>
       </c>
@@ -5736,12 +5736,12 @@
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="2" t="s">
         <v>38</v>
       </c>
@@ -5751,12 +5751,12 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="57"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="23" t="s">
         <v>115</v>
       </c>
@@ -5766,10 +5766,10 @@
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="4">
@@ -5793,8 +5793,8 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -5808,8 +5808,8 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="56"/>
-      <c r="C31" s="67"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -5823,8 +5823,8 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="56"/>
-      <c r="C32" s="67"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -5838,8 +5838,8 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="67"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -5853,8 +5853,8 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="67"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="45"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -5868,12 +5868,12 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="60"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="62"/>
       <c r="H35" s="2" t="s">
         <v>42</v>
       </c>
@@ -5883,12 +5883,12 @@
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="56"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="66"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
       <c r="H36" s="23" t="s">
         <v>41</v>
       </c>
@@ -5898,8 +5898,8 @@
       <c r="J36" s="23"/>
     </row>
     <row r="37" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="56"/>
-      <c r="C37" s="67" t="s">
+      <c r="B37" s="69"/>
+      <c r="C37" s="58" t="s">
         <v>170</v>
       </c>
       <c r="D37" s="4">
@@ -5923,12 +5923,12 @@
       <c r="J37" s="19"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="56"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="62"/>
       <c r="H38" s="2" t="s">
         <v>49</v>
       </c>
@@ -5938,100 +5938,100 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="69" t="s">
+      <c r="J39" s="57" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="67"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="63"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="67"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="63"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="67"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="56"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="65"/>
       <c r="H43" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="67"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="56"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I44" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J44" s="70"/>
+      <c r="J44" s="59"/>
     </row>
     <row r="45" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="56"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="69"/>
+      <c r="C45" s="58" t="s">
         <v>173</v>
       </c>
       <c r="D45" s="4">
@@ -6055,12 +6055,12 @@
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="56"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="62"/>
       <c r="H46" s="2" t="s">
         <v>97</v>
       </c>
@@ -6070,12 +6070,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="56"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="63"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="2" t="s">
         <v>99</v>
       </c>
@@ -6085,12 +6085,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="56"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65"/>
       <c r="H48" s="2" t="s">
         <v>53</v>
       </c>
@@ -6100,12 +6100,12 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="56"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="2" t="s">
         <v>93</v>
       </c>
@@ -6115,12 +6115,12 @@
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="56"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="63"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="19" t="s">
         <v>101</v>
       </c>
@@ -6130,12 +6130,12 @@
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="56"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="2" t="s">
         <v>52</v>
       </c>
@@ -6145,12 +6145,12 @@
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="57"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
       <c r="H52" s="23" t="s">
         <v>51</v>
       </c>
@@ -6160,10 +6160,10 @@
       <c r="J52" s="23"/>
     </row>
     <row r="53" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="71" t="s">
+      <c r="C53" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="4">
@@ -6187,8 +6187,8 @@
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="56"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -6202,8 +6202,8 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="56"/>
-      <c r="C55" s="71"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="45"/>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -6217,12 +6217,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="62"/>
       <c r="H56" s="2" t="s">
         <v>55</v>
       </c>
@@ -6232,12 +6232,12 @@
       <c r="J56" s="18"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="56"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="63"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="2" t="s">
         <v>95</v>
       </c>
@@ -6247,12 +6247,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="56"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="63"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
       <c r="H58" s="21" t="s">
         <v>108</v>
       </c>
@@ -6262,12 +6262,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="56"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="63"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="65"/>
       <c r="H59" s="2" t="s">
         <v>91</v>
       </c>
@@ -6277,12 +6277,12 @@
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="57"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="66"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="23" t="s">
         <v>234</v>
       </c>
@@ -6294,12 +6294,6 @@
     <row r="61" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="D46:G52"/>
-    <mergeCell ref="D56:G60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="C53:C60"/>
     <mergeCell ref="B3:B28"/>
     <mergeCell ref="B29:B52"/>
     <mergeCell ref="D4:G11"/>
@@ -6312,6 +6306,12 @@
     <mergeCell ref="C37:C44"/>
     <mergeCell ref="D38:G44"/>
     <mergeCell ref="D22:G28"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="D46:G52"/>
+    <mergeCell ref="D56:G60"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="C53:C60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6514,10 +6514,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -6525,33 +6525,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="65"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64"/>
-      <c r="C13" s="66"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="99"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -6559,8 +6559,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -6568,11 +6568,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="67" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -6581,36 +6581,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="61"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="67"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="61"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="61"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="67"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="61"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="68"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -6619,59 +6619,59 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="67"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="67"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="67"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="61"/>
-      <c r="C25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="67"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="61"/>
-      <c r="C26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="67"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -6680,14 +6680,14 @@
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="70"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -6697,9 +6697,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="63"/>
-      <c r="E29" s="93" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="65"/>
+      <c r="E29" s="98" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -6707,17 +6707,17 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="61"/>
-      <c r="C30" s="63"/>
-      <c r="E30" s="94"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="65"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="61"/>
-      <c r="C31" s="63"/>
-      <c r="E31" s="94"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
@@ -6726,16 +6726,16 @@
       <c r="B32" s="91"/>
       <c r="C32" s="92"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="95"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="60"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -6752,19 +6752,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="97"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="97"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -6852,16 +6852,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="B16:C27"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="B16:C27"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="E29:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6896,10 +6896,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -6908,32 +6908,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="56"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="67" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -6942,24 +6942,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="56"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -6968,26 +6968,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="57"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -6996,24 +6996,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="56"/>
-      <c r="C16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="58" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -7022,64 +7022,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
-      <c r="C18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
-      <c r="C21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="67"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="56"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -7088,58 +7088,58 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="67"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="67"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
-      <c r="C28" s="67"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
-      <c r="C29" s="67"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="56"/>
-      <c r="C30" s="67"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="57"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -7148,82 +7148,82 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="56"/>
-      <c r="C35" s="71"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="56"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="57"/>
-      <c r="C37" s="72"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="72" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="56"/>
-      <c r="C39" s="71"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="56"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="56"/>
-      <c r="C41" s="71"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="56"/>
-      <c r="C42" s="71"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="72"/>
+      <c r="B43" s="70"/>
+      <c r="C43" s="73"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
@@ -7417,18 +7417,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
@@ -7437,296 +7437,296 @@
       <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,312 +7905,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,6 +8339,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G21:I23"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="G16:I16"/>
@@ -8355,7 +8356,6 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8372,7 +8372,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD33"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8390,312 +8390,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79" t="s">
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L25" s="50"/>
@@ -8810,14 +8810,6 @@
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -8827,6 +8819,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8842,7 +8842,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -8861,312 +8861,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62" t="s">
+      <c r="G21" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9186,7 +9186,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="100" t="s">
+      <c r="L28" s="56" t="s">
         <v>40</v>
       </c>
       <c r="M28" s="19" t="s">
@@ -9198,7 +9198,7 @@
       <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="100" t="s">
+      <c r="L29" s="56" t="s">
         <v>229</v>
       </c>
       <c r="M29" s="19" t="s">
@@ -9210,7 +9210,7 @@
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="100" t="s">
+      <c r="L30" s="56" t="s">
         <v>245</v>
       </c>
       <c r="M30" s="19" t="s">
@@ -9222,7 +9222,7 @@
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="100" t="s">
+      <c r="L31" s="56" t="s">
         <v>246</v>
       </c>
       <c r="M31" s="19" t="s">
@@ -9234,7 +9234,7 @@
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="100" t="s">
+      <c r="L32" s="56" t="s">
         <v>247</v>
       </c>
       <c r="M32" s="19" t="s">
@@ -9246,7 +9246,7 @@
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="100" t="s">
+      <c r="L33" s="56" t="s">
         <v>248</v>
       </c>
       <c r="M33" s="19" t="s">
@@ -9283,6 +9283,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -9293,13 +9300,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9313,10 +9313,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD36"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9329,317 +9329,318 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
-    <col min="13" max="13" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62" t="s">
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9659,11 +9660,11 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="100" t="s">
-        <v>40</v>
+      <c r="L28" s="19" t="s">
+        <v>44</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -9671,11 +9672,11 @@
       <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>230</v>
+      <c r="L29" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -9683,11 +9684,11 @@
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>231</v>
+      <c r="L30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -9695,11 +9696,11 @@
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>228</v>
+      <c r="L31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -9707,11 +9708,11 @@
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>227</v>
+      <c r="L32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -9719,11 +9720,11 @@
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>226</v>
+      <c r="L33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -9731,11 +9732,11 @@
       <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>119</v>
+      <c r="L34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -9743,19 +9744,27 @@
       <c r="Q34" s="53"/>
     </row>
     <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>120</v>
+      <c r="L35" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M35" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
       <c r="Q35" s="54"/>
     </row>
+    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -9766,13 +9775,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9786,10 +9788,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD36"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9802,313 +9804,315 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="12.875" customWidth="1"/>
+    <col min="13" max="13" width="35.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10128,11 +10132,11 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="100" t="s">
-        <v>40</v>
+      <c r="L28" s="18" t="s">
+        <v>240</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -10140,11 +10144,11 @@
       <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>230</v>
+      <c r="L29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -10152,11 +10156,11 @@
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>231</v>
+      <c r="L30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -10164,11 +10168,11 @@
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>228</v>
+      <c r="L31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -10176,11 +10180,11 @@
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>227</v>
+      <c r="L32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -10188,23 +10192,21 @@
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>226</v>
-      </c>
+      <c r="L33" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="47" t="s">
-        <v>42</v>
+      <c r="L34" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>119</v>
+        <v>233</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -10212,19 +10214,27 @@
       <c r="Q34" s="53"/>
     </row>
     <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>120</v>
+      <c r="L35" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
       <c r="Q35" s="54"/>
     </row>
+    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10235,13 +10245,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10255,10 +10258,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD36"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10271,313 +10274,315 @@
     <col min="7" max="7" width="4.625" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="1.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="84"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="82"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="85"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="85"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="85"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="85"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="85"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="85"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="85"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="85"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="85"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="85"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="85"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="85"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="85"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="85"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="85"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="85"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="85"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="s">
+      <c r="A21" s="83"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="85"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="85"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="86"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="87"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10597,11 +10602,11 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>118</v>
+      <c r="L28" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -10609,11 +10614,11 @@
       <c r="Q28" s="53"/>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>230</v>
+      <c r="L29" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -10621,11 +10626,11 @@
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="100" t="s">
-        <v>245</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>231</v>
+      <c r="L30" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -10633,11 +10638,11 @@
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>228</v>
+      <c r="L31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -10645,11 +10650,11 @@
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>227</v>
+      <c r="L32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -10657,11 +10662,11 @@
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" s="19" t="s">
-        <v>226</v>
+      <c r="L33" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -10669,11 +10674,11 @@
       <c r="Q33" s="53"/>
     </row>
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="47" t="s">
-        <v>42</v>
+      <c r="L34" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -10681,19 +10686,27 @@
       <c r="Q34" s="53"/>
     </row>
     <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M35" s="49" t="s">
-        <v>120</v>
+      <c r="L35" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
       <c r="Q35" s="54"/>
     </row>
+    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10704,13 +10717,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13924,8 +13930,8 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
-      <c r="Y50" s="89"/>
-      <c r="Z50" s="89"/>
+      <c r="Y50" s="90"/>
+      <c r="Z50" s="90"/>
       <c r="AA50" s="35"/>
       <c r="AB50" s="35"/>
       <c r="AC50" s="35"/>
@@ -13974,8 +13980,8 @@
       <c r="BT50" s="35"/>
       <c r="BU50" s="35"/>
       <c r="BV50" s="35"/>
-      <c r="BW50" s="89"/>
-      <c r="BX50" s="89"/>
+      <c r="BW50" s="90"/>
+      <c r="BX50" s="90"/>
       <c r="BY50" s="35"/>
       <c r="BZ50" s="35"/>
       <c r="CA50" s="35"/>
@@ -16699,8 +16705,8 @@
       <c r="V100" s="38"/>
       <c r="W100" s="38"/>
       <c r="X100" s="38"/>
-      <c r="Y100" s="88"/>
-      <c r="Z100" s="88"/>
+      <c r="Y100" s="89"/>
+      <c r="Z100" s="89"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="38"/>
       <c r="AC100" s="38"/>
@@ -16749,8 +16755,8 @@
       <c r="BT100" s="38"/>
       <c r="BU100" s="38"/>
       <c r="BV100" s="38"/>
-      <c r="BW100" s="88"/>
-      <c r="BX100" s="88"/>
+      <c r="BW100" s="89"/>
+      <c r="BX100" s="89"/>
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
       <c r="CA100" s="38"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YooRimKim\Desktop\GitHub\AtentsProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6D0AB8-F493-4555-B30C-B4734ED39F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2FC1C3-6469-4C57-A422-0A653655F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -771,14 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>렘페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 및 체력 감소, 공격령 배수 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>버서커 소울</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,6 +1000,66 @@
   </si>
   <si>
     <t>그래플링 훅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3칸 가로로 벽설치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3 연막(그안에서 공격못함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 십자원하는곳으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블리자드 아이시클</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>큰메테오 큰범위딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원하는방향 범위딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟팅 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한턴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">한턴더 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군행동력훔치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,13 +1921,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1905,13 +1954,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1971,11 +2023,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,18 +2052,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2413,13 +2465,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2462,13 +2514,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2511,15 +2563,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>495300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2548,8 +2600,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10182225" y="8477250"/>
-          <a:ext cx="428625" cy="428625"/>
+          <a:off x="10153650" y="7924800"/>
+          <a:ext cx="485775" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,15 +2613,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2598,7 +2650,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10172700" y="8943975"/>
+          <a:off x="10153650" y="8410575"/>
           <a:ext cx="495300" cy="495300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2612,13 +2664,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2661,15 +2713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2698,7 +2750,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10153650" y="9972674"/>
+          <a:off x="10125075" y="9467849"/>
           <a:ext cx="504825" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4209,56 +4261,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="그림 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60DBAC7-120D-8097-38CC-41004C5A2B85}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10963275" y="5848350"/>
-          <a:ext cx="590550" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -4283,7 +4285,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4333,7 +4335,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4383,7 +4385,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4433,7 +4435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4483,7 +4485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4533,7 +4535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4583,7 +4585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4598,6 +4600,56 @@
         <a:xfrm>
           <a:off x="10963275" y="10086975"/>
           <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32971</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>210650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>641961</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>606303</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C12F4276-771E-C488-9D9D-E22BE5632138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11008702" y="5896342"/>
+          <a:ext cx="608990" cy="608134"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4716,6 +4768,406 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB825A2-075B-C75B-BC7A-996C94312BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="8258175"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>590549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6981EDB8-67E8-B3A0-1D0F-B4DCEC0B8DB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858751" y="7648574"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D411F25A-34CD-F755-AE5F-8D4A92DFFF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12820650" y="7048500"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ADB3048-213B-C5C6-0033-20A4933DD941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12858750" y="6410325"/>
+          <a:ext cx="647699" cy="647699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C500C82D-897E-A5CB-35F8-CCEF7B11C701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12934950" y="8915400"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>561975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9AE6A-E023-DFA9-A35D-0AA81AECEC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="9448800"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>600074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83D3730-4E41-3B92-A056-969682E70CA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12877800" y="10106024"/>
+          <a:ext cx="600075" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB465834-0AE0-2D84-A04A-D79F2E68A9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12915900" y="5876925"/>
+          <a:ext cx="514350" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4822,6 +5274,406 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4179B91A-A1B2-473A-D3A5-CFCE73687D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10153650" y="8867775"/>
+          <a:ext cx="657225" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDE8FCD-C625-6758-9DF9-C7ADBC0F3A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106026" y="5791201"/>
+          <a:ext cx="666750" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A449E0F-4432-6915-FDD0-98629C2B84D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="6477000"/>
+          <a:ext cx="552450" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CC9B46-72D0-159F-1D64-791D9A46472A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="7115174"/>
+          <a:ext cx="561975" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>542924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>609599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D4703AA-B61D-9DBB-24E9-DD7787B60A6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="7600949"/>
+          <a:ext cx="676275" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2609850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3660AF8-B317-DD2D-5B56-C13ACC1DEFA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="8315324"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>600074</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510040FC-44B4-BEFA-1CAB-D075B4C4AF30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10210800" y="10144124"/>
+          <a:ext cx="561975" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>514350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FD5FA4-5014-947C-0190-4A412322B589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10115550" y="9439275"/>
+          <a:ext cx="571500" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4991,6 +5843,406 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29388201-47D9-DB05-B99B-4AF556BE6E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="8886825"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9406E7F5-3C49-6E1B-F2AB-D30080606D3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="10125075"/>
+          <a:ext cx="609600" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529DFEB2-5C8D-0F7B-7304-F6C816462456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10258425" y="9505950"/>
+          <a:ext cx="619125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1141437-55DB-262D-AC2B-81D750D2FE5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="5867400"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC0CA8-A6BC-B19C-77A4-577F8F329E81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="7077075"/>
+          <a:ext cx="590550" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>571500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>600075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F5360C5-8D6E-534E-FE6C-56779743766A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10239375" y="7629525"/>
+          <a:ext cx="638175" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD600B2-BBE4-A4EA-0A42-1E777338A2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10248900" y="6486525"/>
+          <a:ext cx="581025" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BBBC25-E5BB-49BB-8FF1-644F7A68E1D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10229850" y="8277225"/>
+          <a:ext cx="647700" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -5295,10 +6547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
-  <dimension ref="B2:J61"/>
+  <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:I60"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5339,10 +6591,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -5366,12 +6618,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -5381,12 +6633,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -5396,158 +6648,158 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="57"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="69"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="57"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="2" t="s">
+    </row>
+    <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="57"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="69"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="23" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="23" t="s">
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="57"/>
+      <c r="C11" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="57"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="57"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8</v>
-      </c>
-      <c r="E12" s="4">
-        <v>7</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="I13" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="57"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>200</v>
-      </c>
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="17" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>204</v>
@@ -5555,766 +6807,754 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="17" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="57"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="57"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="18" t="s">
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="57"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="57"/>
+      <c r="C20" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I20" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="19"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="57"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="69"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4">
+      <c r="I21" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="57"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="57"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="57"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" s="19"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="57"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="58"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="23"/>
+    </row>
+    <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
         <v>10</v>
       </c>
-      <c r="E21" s="4">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>3</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="J24" s="19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="J25" s="19"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J26" s="19"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4">
-        <v>3</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>10</v>
-      </c>
-      <c r="G29" s="4">
+      <c r="G28" s="4">
         <v>5</v>
       </c>
+      <c r="H28" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="57"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="46"/>
       <c r="H29" s="19" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="46"/>
       <c r="H30" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="I30" s="19" t="s">
-        <v>230</v>
-      </c>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="46"/>
       <c r="H31" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="46"/>
       <c r="H32" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="46"/>
       <c r="H33" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="J34" s="19"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="2" t="s">
+      <c r="B34" s="57"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="69"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="23" t="s">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="57"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="23" t="s">
+      <c r="I35" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="58" t="s">
+      <c r="J35" s="23"/>
+    </row>
+    <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="57"/>
+      <c r="C36" s="68" t="s">
         <v>170</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D36" s="4">
         <v>3</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E36" s="4">
         <v>4</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F36" s="4">
         <v>10</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G36" s="4">
         <v>3</v>
       </c>
-      <c r="H37" s="19" t="s">
+      <c r="H36" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="19" t="s">
+      <c r="I36" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="19"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="57"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
-      <c r="G38" s="62"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J38" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J38" s="70" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="2" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="57" t="s">
-        <v>130</v>
-      </c>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="58"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B43" s="69"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="2" t="s">
-        <v>121</v>
+      <c r="J42" s="68"/>
+    </row>
+    <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="57"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="69"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" s="59"/>
-    </row>
-    <row r="45" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="58" t="s">
+      <c r="J43" s="71"/>
+    </row>
+    <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="57"/>
+      <c r="C44" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D44" s="4">
         <v>5</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E44" s="4">
         <v>4</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F44" s="4">
         <v>4</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G44" s="4">
         <v>10</v>
       </c>
-      <c r="H45" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" s="19" t="s">
+      <c r="H44" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I44" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="J45" s="19"/>
+      <c r="J44" s="19"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="57"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="2" t="s">
-        <v>93</v>
+      <c r="B49" s="57"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="2" t="s">
+      <c r="B50" s="57"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="I50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="58"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
+      <c r="H51" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" s="23"/>
+    </row>
+    <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
+      <c r="G52" s="4">
+        <v>7</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="57"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I52" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="J52" s="23"/>
-    </row>
-    <row r="53" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="4">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4">
-        <v>3</v>
-      </c>
-      <c r="F53" s="4">
-        <v>4</v>
-      </c>
-      <c r="G53" s="4">
-        <v>7</v>
-      </c>
-      <c r="H53" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J53" s="2"/>
+      <c r="I53" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="72"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="46"/>
       <c r="H54" s="19" t="s">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>236</v>
+        <v>89</v>
       </c>
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="72"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="19" t="s">
-        <v>89</v>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="72"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="62"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
       <c r="H56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="J56" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="72"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="2" t="s">
-        <v>95</v>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="21" t="s">
+        <v>108</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="21" t="s">
-        <v>108</v>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B59" s="69"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="64"/>
-      <c r="F59" s="64"/>
-      <c r="G59" s="65"/>
-      <c r="H59" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="70"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="I60" s="23" t="s">
+    <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="58"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="I59" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="J59" s="23"/>
+    </row>
+    <row r="60" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B3:B28"/>
-    <mergeCell ref="B29:B52"/>
-    <mergeCell ref="D4:G11"/>
-    <mergeCell ref="D13:G20"/>
-    <mergeCell ref="D35:G36"/>
-    <mergeCell ref="C3:C11"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="C21:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C37:C44"/>
-    <mergeCell ref="D38:G44"/>
-    <mergeCell ref="D22:G28"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="D46:G52"/>
-    <mergeCell ref="D56:G60"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D45:G51"/>
+    <mergeCell ref="D55:G59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C59"/>
+    <mergeCell ref="B3:B27"/>
+    <mergeCell ref="B28:B51"/>
+    <mergeCell ref="D4:G10"/>
+    <mergeCell ref="D12:G19"/>
+    <mergeCell ref="D34:G35"/>
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C19"/>
+    <mergeCell ref="C20:C27"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D37:G43"/>
+    <mergeCell ref="D21:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6514,10 +7754,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -6525,33 +7765,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="64"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="64"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -6559,8 +7799,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="66"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -6568,11 +7808,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -6581,36 +7821,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -6619,75 +7859,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="68" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -6697,9 +7937,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="65"/>
-      <c r="E29" s="98" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="64"/>
+      <c r="E29" s="94" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -6707,35 +7947,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="65"/>
-      <c r="E30" s="99"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="64"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="65"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="64"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="100"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -6743,8 +7983,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -6752,19 +7992,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="94"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -6852,16 +8092,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B10:C13"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="B16:C27"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="B28:C32"/>
     <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B10:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6896,10 +8136,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -6908,32 +8148,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -6942,24 +8182,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -6968,26 +8208,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -6996,24 +8236,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="68" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -7022,64 +8262,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -7088,55 +8328,55 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -7148,7 +8388,7 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="72"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
@@ -7156,7 +8396,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -7164,7 +8404,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="72"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
@@ -7172,7 +8412,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="72"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -7180,7 +8420,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="70"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="73"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
@@ -7188,7 +8428,7 @@
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="72" t="s">
@@ -7198,31 +8438,31 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="72"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="72"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="72"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="72"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="70"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="73"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -7393,10 +8633,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView topLeftCell="D19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27:Q36"/>
+    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7450,273 +8690,315 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
-    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
-    </row>
-    <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T21" t="s">
+        <v>258</v>
+      </c>
+      <c r="U21" t="s">
+        <v>259</v>
+      </c>
+      <c r="V21" t="s">
+        <v>260</v>
+      </c>
+      <c r="W21" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>64</v>
+      </c>
+      <c r="T22">
+        <v>2000</v>
+      </c>
+      <c r="U22">
+        <v>20</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="84"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
       <c r="I23" s="80"/>
       <c r="J23" s="87"/>
-    </row>
-    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" t="s">
+        <v>257</v>
+      </c>
+      <c r="T23">
+        <v>50</v>
+      </c>
+      <c r="U23">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
       <c r="B24" s="78"/>
       <c r="C24" s="78"/>
@@ -7728,24 +9010,24 @@
       <c r="I24" s="78"/>
       <c r="J24" s="79"/>
     </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="47" t="s">
         <v>103</v>
       </c>
@@ -7757,7 +9039,7 @@
       <c r="P28" s="2"/>
       <c r="Q28" s="53"/>
     </row>
-    <row r="29" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="47" t="s">
         <v>105</v>
       </c>
@@ -7769,7 +9051,7 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="53"/>
     </row>
-    <row r="30" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="47" t="s">
         <v>185</v>
       </c>
@@ -7781,24 +9063,24 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="53"/>
     </row>
-    <row r="31" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="47" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="53"/>
     </row>
-    <row r="32" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="47" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -7807,10 +9089,10 @@
     </row>
     <row r="33" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="47" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7819,39 +9101,27 @@
     </row>
     <row r="34" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L34" s="47" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="53"/>
     </row>
-    <row r="35" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="47" t="s">
-        <v>187</v>
-      </c>
-      <c r="M35" s="2" t="s">
+    <row r="35" spans="12:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="M35" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="53"/>
-    </row>
-    <row r="36" spans="12:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L36" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="M36" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="54"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7886,7 +9156,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q26" sqref="N26:Q26"/>
     </sheetView>
   </sheetViews>
@@ -7932,256 +9202,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,11 +9459,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -8217,13 +9487,13 @@
       <c r="L26" s="50"/>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P26" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P26" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q26" s="52" t="s">
         <v>156</v>
@@ -8231,10 +9501,10 @@
     </row>
     <row r="27" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L27" s="47" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -8243,10 +9513,10 @@
     </row>
     <row r="28" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="47" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -8255,10 +9525,10 @@
     </row>
     <row r="29" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -8267,10 +9537,10 @@
     </row>
     <row r="30" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="47" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -8279,10 +9549,10 @@
     </row>
     <row r="31" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="47" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -8291,10 +9561,10 @@
     </row>
     <row r="32" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -8303,10 +9573,10 @@
     </row>
     <row r="33" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -8315,10 +9585,10 @@
     </row>
     <row r="34" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L34" s="47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -8330,7 +9600,7 @@
         <v>110</v>
       </c>
       <c r="M35" s="49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
@@ -8339,11 +9609,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -8356,6 +9621,11 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8371,7 +9641,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -8417,254 +9687,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8672,11 +9942,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80" t="s">
         <v>162</v>
@@ -8701,13 +9971,13 @@
       <c r="L25" s="50"/>
       <c r="M25" s="51"/>
       <c r="N25" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O25" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P25" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O25" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P25" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q25" s="52" t="s">
         <v>156</v>
@@ -8715,7 +9985,7 @@
     </row>
     <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L26" s="55" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>113</v>
@@ -8727,10 +9997,10 @@
     </row>
     <row r="27" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L27" s="55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -8739,10 +10009,10 @@
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -8751,10 +10021,10 @@
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -8763,10 +10033,10 @@
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -8776,7 +10046,7 @@
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="55"/>
       <c r="M31" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -8810,6 +10080,14 @@
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -8819,14 +10097,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8842,7 +10112,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="K28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -8888,256 +10158,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9145,11 +10415,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9173,13 +10443,13 @@
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>156</v>
@@ -9199,10 +10469,10 @@
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="56" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -9211,10 +10481,10 @@
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="56" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -9223,10 +10493,10 @@
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="56" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M31" s="19" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -9235,10 +10505,10 @@
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="56" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -9247,10 +10517,10 @@
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="56" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -9283,13 +10553,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -9300,6 +10563,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9315,8 +10585,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:M35"/>
+    <sheetView topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9362,256 +10632,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9619,11 +10889,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9647,13 +10917,13 @@
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>156</v>
@@ -9688,7 +10958,7 @@
         <v>117</v>
       </c>
       <c r="M30" s="31" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -9700,7 +10970,7 @@
         <v>45</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -9709,10 +10979,10 @@
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="2" t="s">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -9724,7 +10994,7 @@
         <v>47</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -9736,7 +11006,7 @@
         <v>121</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -9748,7 +11018,7 @@
         <v>48</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
@@ -9758,13 +11028,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -9775,6 +11038,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9791,7 +11061,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9836,254 +11106,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10091,11 +11361,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -10119,13 +11389,13 @@
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>156</v>
@@ -10133,7 +11403,7 @@
     </row>
     <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>102</v>
@@ -10148,7 +11418,7 @@
         <v>97</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -10195,7 +11465,9 @@
       <c r="L33" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>255</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -10206,7 +11478,7 @@
         <v>52</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -10228,13 +11500,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10245,6 +11510,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10260,8 +11532,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10306,254 +11578,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10561,11 +11833,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -10589,13 +11861,13 @@
       <c r="L27" s="50"/>
       <c r="M27" s="51"/>
       <c r="N27" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>237</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="Q27" s="52" t="s">
         <v>156</v>
@@ -10615,10 +11887,10 @@
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -10687,7 +11959,7 @@
     </row>
     <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L35" s="23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M35" s="23" t="s">
         <v>90</v>
@@ -10700,13 +11972,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10717,6 +11982,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2FC1C3-6469-4C57-A422-0A653655F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0DFC38-B84B-49C7-8A9A-CE11816E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -1921,10 +1921,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1954,16 +1957,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2023,23 +2023,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2052,6 +2040,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6549,8 +6549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6591,10 +6591,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -6618,12 +6618,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -6633,12 +6633,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -6648,12 +6648,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="2" t="s">
         <v>107</v>
       </c>
@@ -6663,12 +6663,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
@@ -6678,12 +6678,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
@@ -6693,12 +6693,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
       <c r="H9" s="2" t="s">
         <v>187</v>
       </c>
@@ -6707,12 +6707,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
@@ -6722,8 +6722,8 @@
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="58" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -6747,12 +6747,12 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
@@ -6762,12 +6762,12 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
@@ -6777,12 +6777,12 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
@@ -6792,12 +6792,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="17" t="s">
         <v>203</v>
       </c>
@@ -6807,12 +6807,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="18" t="s">
         <v>197</v>
       </c>
@@ -6822,12 +6822,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="18" t="s">
         <v>209</v>
       </c>
@@ -6837,12 +6837,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
@@ -6852,12 +6852,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="57"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="23" t="s">
         <v>110</v>
       </c>
@@ -6867,8 +6867,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="68" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4">
@@ -6892,12 +6892,12 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
@@ -6909,12 +6909,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="6" t="s">
         <v>239</v>
       </c>
@@ -6926,12 +6926,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="6" t="s">
         <v>240</v>
       </c>
@@ -6943,12 +6943,12 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="6" t="s">
         <v>241</v>
       </c>
@@ -6958,12 +6958,12 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65"/>
       <c r="H25" s="6" t="s">
         <v>242</v>
       </c>
@@ -6973,12 +6973,12 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6988,12 +6988,12 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="23" t="s">
         <v>115</v>
       </c>
@@ -7003,10 +7003,10 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4">
@@ -7030,8 +7030,8 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="45"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -7045,8 +7045,8 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -7060,8 +7060,8 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -7075,8 +7075,8 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -7090,8 +7090,8 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -7105,12 +7105,12 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7120,12 +7120,12 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
       <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
@@ -7135,8 +7135,8 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="69"/>
+      <c r="C36" s="58" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="4">
@@ -7160,12 +7160,12 @@
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="62"/>
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
@@ -7175,100 +7175,100 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65"/>
       <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="57" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="58"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="58"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="58"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="65"/>
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="68"/>
+      <c r="J42" s="58"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="71"/>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="69"/>
+      <c r="C44" s="58" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="4">
@@ -7292,12 +7292,12 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="62"/>
       <c r="H45" s="2" t="s">
         <v>97</v>
       </c>
@@ -7307,12 +7307,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7322,12 +7322,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="65"/>
       <c r="H47" s="2" t="s">
         <v>53</v>
       </c>
@@ -7337,12 +7337,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="B48" s="69"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="65"/>
       <c r="H48" s="2" t="s">
         <v>93</v>
       </c>
@@ -7352,12 +7352,12 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="19" t="s">
         <v>101</v>
       </c>
@@ -7369,12 +7369,12 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="57"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="64"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
@@ -7384,12 +7384,12 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="58"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
       <c r="H51" s="23" t="s">
         <v>51</v>
       </c>
@@ -7399,7 +7399,7 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="72" t="s">
@@ -7426,7 +7426,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
+      <c r="B53" s="69"/>
       <c r="C53" s="72"/>
       <c r="D53" s="45"/>
       <c r="E53" s="20"/>
@@ -7441,7 +7441,7 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
+      <c r="B54" s="69"/>
       <c r="C54" s="72"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
@@ -7456,12 +7456,12 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="72"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="62"/>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
@@ -7471,12 +7471,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
+      <c r="B56" s="69"/>
       <c r="C56" s="72"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
@@ -7486,12 +7486,12 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
+      <c r="B57" s="69"/>
       <c r="C57" s="72"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
       <c r="H57" s="21" t="s">
         <v>108</v>
       </c>
@@ -7501,12 +7501,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
+      <c r="B58" s="69"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
       <c r="H58" s="2" t="s">
         <v>91</v>
       </c>
@@ -7516,12 +7516,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="58"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="73"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="67"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="23" t="s">
         <v>232</v>
       </c>
@@ -7533,12 +7533,6 @@
     <row r="60" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D45:G51"/>
-    <mergeCell ref="D55:G59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C59"/>
     <mergeCell ref="B3:B27"/>
     <mergeCell ref="B28:B51"/>
     <mergeCell ref="D4:G10"/>
@@ -7551,6 +7545,12 @@
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="D37:G43"/>
     <mergeCell ref="D21:G27"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D45:G51"/>
+    <mergeCell ref="D55:G59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7754,10 +7754,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -7765,33 +7765,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="65"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="100"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -7799,8 +7799,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="65"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -7808,11 +7808,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="65"/>
+      <c r="D16" s="58" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -7821,36 +7821,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="68"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="58"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="68"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="71"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -7859,75 +7859,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="58" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="58"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="58"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="58"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -7937,9 +7937,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="64"/>
-      <c r="E29" s="94" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="65"/>
+      <c r="E29" s="98" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -7947,35 +7947,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="64"/>
-      <c r="E30" s="95"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="65"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="64"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="65"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="96"/>
+      <c r="E32" s="100"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -7983,8 +7983,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -7992,19 +7992,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="98"/>
+      <c r="C36" s="94"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -8092,16 +8092,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="B16:C27"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="B16:C27"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="E29:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8136,10 +8136,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="58" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8148,32 +8148,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="58" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8182,24 +8182,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="71"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="58" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8208,26 +8208,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="58" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -8236,24 +8236,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="71"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="58" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -8262,64 +8262,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="58"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="58" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -8328,55 +8328,55 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="58"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -8388,7 +8388,7 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="72"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
@@ -8396,7 +8396,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -8404,7 +8404,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="72"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
@@ -8412,7 +8412,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="72"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -8420,7 +8420,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
+      <c r="B37" s="70"/>
       <c r="C37" s="73"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
@@ -8428,7 +8428,7 @@
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="69" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="72" t="s">
@@ -8438,31 +8438,31 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="72"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="72"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="72"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="72"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="58"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="73"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -8635,8 +8635,8 @@
   </sheetPr>
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8690,242 +8690,242 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
       <c r="T21" t="s">
         <v>258</v>
@@ -8942,14 +8942,14 @@
     </row>
     <row r="22" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
       <c r="S22" t="s">
         <v>64</v>
@@ -8972,11 +8972,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9156,8 +9156,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="N26:Q26"/>
+    <sheetView tabSelected="1" topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9202,256 +9202,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="64" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,11 +9459,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9609,6 +9609,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -9623,9 +9626,6 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G21:I23"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9687,254 +9687,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,11 +9942,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80" t="s">
         <v>162</v>
@@ -10080,14 +10080,6 @@
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -10097,6 +10089,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10158,256 +10158,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10415,11 +10415,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -10553,6 +10553,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10563,13 +10570,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10632,256 +10632,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="64" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10889,11 +10889,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11028,6 +11028,13 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11038,13 +11045,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11106,254 +11106,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11361,11 +11361,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11500,6 +11500,13 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11510,13 +11517,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11578,254 +11578,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11833,11 +11833,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="64" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11972,6 +11972,13 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11982,13 +11989,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0DFC38-B84B-49C7-8A9A-CE11816E9FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7E25F-2FB4-40A0-AC06-4148B01B2C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="15" yWindow="2955" windowWidth="21600" windowHeight="11385" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="263">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1060,6 +1060,10 @@
   </si>
   <si>
     <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라클 비전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1921,13 +1925,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1957,13 +1958,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2023,11 +2027,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2040,18 +2056,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6549,8 +6553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6591,10 +6595,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -6618,12 +6622,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -6633,12 +6637,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -6648,12 +6652,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
       <c r="H6" s="2" t="s">
         <v>107</v>
       </c>
@@ -6663,12 +6667,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="69"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
@@ -6678,12 +6682,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
@@ -6693,12 +6697,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="2" t="s">
         <v>187</v>
       </c>
@@ -6707,12 +6711,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
@@ -6722,8 +6726,8 @@
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="68" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -6747,12 +6751,12 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
@@ -6762,12 +6766,12 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="69"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
       <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
@@ -6777,12 +6781,12 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="69"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
@@ -6792,12 +6796,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
       <c r="H15" s="17" t="s">
         <v>203</v>
       </c>
@@ -6807,12 +6811,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="69"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="18" t="s">
         <v>197</v>
       </c>
@@ -6822,12 +6826,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="18" t="s">
         <v>209</v>
       </c>
@@ -6837,12 +6841,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
@@ -6852,12 +6856,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="69"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="68"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="23" t="s">
         <v>110</v>
       </c>
@@ -6867,8 +6871,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
-      <c r="C20" s="58" t="s">
+      <c r="B20" s="57"/>
+      <c r="C20" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4">
@@ -6892,12 +6896,12 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
@@ -6909,12 +6913,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
       <c r="H22" s="6" t="s">
         <v>239</v>
       </c>
@@ -6926,12 +6930,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="6" t="s">
         <v>240</v>
       </c>
@@ -6943,12 +6947,12 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="69"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
       <c r="H24" s="6" t="s">
         <v>241</v>
       </c>
@@ -6958,12 +6962,12 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
       <c r="H25" s="6" t="s">
         <v>242</v>
       </c>
@@ -6973,12 +6977,12 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="65"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
       <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6988,12 +6992,12 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="70"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="67"/>
       <c r="H27" s="23" t="s">
         <v>115</v>
       </c>
@@ -7003,10 +7007,10 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="69" t="s">
+      <c r="B28" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4">
@@ -7030,8 +7034,8 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="45"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -7045,8 +7049,8 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -7060,14 +7064,14 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="69"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="46"/>
       <c r="H31" s="19" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="I31" s="19" t="s">
         <v>226</v>
@@ -7075,8 +7079,8 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="69"/>
-      <c r="C32" s="58"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -7090,8 +7094,8 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="C33" s="58"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -7105,12 +7109,12 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="61"/>
       <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7120,14 +7124,14 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="69"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="23" t="s">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="I35" s="23" t="s">
         <v>120</v>
@@ -7135,8 +7139,8 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
-      <c r="C36" s="58" t="s">
+      <c r="B36" s="57"/>
+      <c r="C36" s="68" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="4">
@@ -7160,12 +7164,12 @@
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="69"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="61"/>
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
@@ -7175,100 +7179,100 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="69"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="65"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="68"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
       <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="57" t="s">
+      <c r="J38" s="70" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="65"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
       <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="58"/>
+      <c r="J39" s="68"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="65"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
       <c r="H40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="58"/>
+      <c r="J40" s="68"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
-      <c r="F41" s="64"/>
-      <c r="G41" s="65"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="58"/>
+      <c r="J41" s="68"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="65"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="58"/>
+      <c r="J42" s="68"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="69"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="59"/>
+      <c r="J43" s="71"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="69"/>
-      <c r="C44" s="58" t="s">
+      <c r="B44" s="57"/>
+      <c r="C44" s="68" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="4">
@@ -7292,12 +7296,12 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="69"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="61"/>
       <c r="H45" s="2" t="s">
         <v>97</v>
       </c>
@@ -7307,12 +7311,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="69"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="64"/>
-      <c r="F46" s="64"/>
-      <c r="G46" s="65"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="64"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7322,12 +7326,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="69"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="65"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
       <c r="H47" s="2" t="s">
         <v>53</v>
       </c>
@@ -7337,12 +7341,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="69"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
       <c r="H48" s="2" t="s">
         <v>93</v>
       </c>
@@ -7352,12 +7356,12 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="69"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
       <c r="H49" s="19" t="s">
         <v>101</v>
       </c>
@@ -7369,12 +7373,12 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="69"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="65"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
@@ -7384,12 +7388,12 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="68"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="67"/>
       <c r="H51" s="23" t="s">
         <v>51</v>
       </c>
@@ -7399,7 +7403,7 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="72" t="s">
@@ -7426,7 +7430,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="72"/>
       <c r="D53" s="45"/>
       <c r="E53" s="20"/>
@@ -7441,7 +7445,7 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="69"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="72"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
@@ -7456,12 +7460,12 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="72"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="62"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
@@ -7471,12 +7475,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="72"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
@@ -7486,12 +7490,12 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="69"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="72"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
       <c r="H57" s="21" t="s">
         <v>108</v>
       </c>
@@ -7501,12 +7505,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="69"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="72"/>
-      <c r="D58" s="63"/>
-      <c r="E58" s="64"/>
-      <c r="F58" s="64"/>
-      <c r="G58" s="65"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="64"/>
       <c r="H58" s="2" t="s">
         <v>91</v>
       </c>
@@ -7516,12 +7520,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="70"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="73"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="68"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="23" t="s">
         <v>232</v>
       </c>
@@ -7533,6 +7537,12 @@
     <row r="60" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D45:G51"/>
+    <mergeCell ref="D55:G59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C59"/>
     <mergeCell ref="B3:B27"/>
     <mergeCell ref="B28:B51"/>
     <mergeCell ref="D4:G10"/>
@@ -7545,12 +7555,6 @@
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="D37:G43"/>
     <mergeCell ref="D21:G27"/>
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D45:G51"/>
-    <mergeCell ref="D55:G59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7754,10 +7758,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -7765,33 +7769,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="63"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="64"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="64"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="66"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="96"/>
+      <c r="C14" s="100"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -7799,8 +7803,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="66"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -7808,11 +7812,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="65"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="68" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -7821,36 +7825,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="58"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="58"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="58"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="68"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="71"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -7859,75 +7863,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="64"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="68" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="63"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="64"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="58"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="64"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="58"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="63"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="64"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="58"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="C25" s="65"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="64"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="63"/>
-      <c r="C26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="58"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="E27" s="71"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="62"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -7937,9 +7941,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="63"/>
-      <c r="C29" s="65"/>
-      <c r="E29" s="98" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="64"/>
+      <c r="E29" s="94" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -7947,35 +7951,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="63"/>
-      <c r="C30" s="65"/>
-      <c r="E30" s="99"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="64"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="63"/>
-      <c r="C31" s="65"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="64"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="100"/>
+      <c r="E32" s="96"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -7983,8 +7987,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -7992,19 +7996,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="94"/>
+      <c r="C35" s="98"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="94"/>
+      <c r="C36" s="98"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -8092,16 +8096,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="B10:C13"/>
     <mergeCell ref="E21:E27"/>
     <mergeCell ref="B16:C27"/>
     <mergeCell ref="D16:D20"/>
     <mergeCell ref="B28:C32"/>
     <mergeCell ref="E29:E32"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="B10:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8136,10 +8140,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="68" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8148,32 +8152,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="68"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="58"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
-      <c r="C7" s="71"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="69"/>
-      <c r="C8" s="58" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="68" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8182,24 +8186,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="69"/>
-      <c r="C9" s="58"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69"/>
-      <c r="C11" s="58" t="s">
+      <c r="B11" s="57"/>
+      <c r="C11" s="68" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8208,26 +8212,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="69"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="68" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -8236,24 +8240,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="69"/>
-      <c r="C15" s="58"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
-      <c r="C16" s="71"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
-      <c r="C17" s="58" t="s">
+      <c r="B17" s="57"/>
+      <c r="C17" s="68" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -8262,64 +8266,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="69"/>
-      <c r="C18" s="58"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="68"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="58"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="69"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="69"/>
-      <c r="C21" s="58"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="69"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="69"/>
-      <c r="C23" s="58"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="69"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="69"/>
-      <c r="C25" s="58" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -8328,55 +8332,55 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="69"/>
-      <c r="C26" s="58"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="69"/>
-      <c r="C27" s="58"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="69"/>
-      <c r="C28" s="58"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="69"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="69"/>
-      <c r="C30" s="58"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="70"/>
-      <c r="C31" s="71"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="69"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="57" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="72" t="s">
@@ -8388,7 +8392,7 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="72"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
@@ -8396,7 +8400,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="69"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="72"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -8404,7 +8408,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="69"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="72"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
@@ -8412,7 +8416,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="69"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="72"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -8420,7 +8424,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="70"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="73"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
@@ -8428,7 +8432,7 @@
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="69" t="s">
+      <c r="B38" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="72" t="s">
@@ -8438,31 +8442,31 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="69"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="72"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="69"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="72"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="69"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="72"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="69"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="72"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="70"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="73"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -8690,242 +8694,242 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
       <c r="T21" t="s">
         <v>258</v>
@@ -8942,14 +8946,14 @@
     </row>
     <row r="22" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
       <c r="S22" t="s">
         <v>64</v>
@@ -8972,11 +8976,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9156,7 +9160,7 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -9202,256 +9206,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9459,11 +9463,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -9609,6 +9613,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I20"/>
@@ -9625,7 +9630,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9687,254 +9691,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9942,11 +9946,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80" t="s">
         <v>162</v>
@@ -10080,6 +10084,14 @@
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -10089,14 +10101,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10112,8 +10116,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="K28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView topLeftCell="K31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10158,256 +10162,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64" t="s">
+      <c r="G21" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10415,11 +10419,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -10553,13 +10557,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10570,6 +10567,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10632,256 +10636,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10889,11 +10893,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11028,13 +11032,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11045,6 +11042,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11106,254 +11110,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11361,11 +11365,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11500,13 +11504,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11517,6 +11514,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11578,254 +11582,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="83"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
       <c r="J3" s="86"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="83"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="83"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="86"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="83"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="83"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="88" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="83"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="83"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="86"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="83"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="83"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="J11" s="86"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="83"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="J12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="83"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="J13" s="86"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="83"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="83"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="64" t="s">
+      <c r="G15" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
       <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="83"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="86"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="83"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="86"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="83"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="86"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="83"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
       <c r="J19" s="86"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="83"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
       <c r="J20" s="86"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="83"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="83"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
       <c r="J22" s="86"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11833,11 +11837,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -11972,13 +11976,6 @@
     <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11989,6 +11986,13 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2FC1C3-6469-4C57-A422-0A653655F72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC965BF-FF34-4490-94CF-CB0F957BD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="363">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -867,10 +867,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패던지기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 비례 원거리 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -879,10 +875,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갑옷파괴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n턴 이속증가 방어력하향</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -899,10 +891,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방패떨구기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상대방적이동속도감소 + 약간데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,10 +951,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이펙트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어쌔신 센스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1007,14 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3x3 연막(그안에서 공격못함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군 십자원하는곳으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블리자드 아이시클</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1060,6 +1036,467 @@
   </si>
   <si>
     <t>SPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순강평타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도트설치형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채꼴브레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저브레스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한턴기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동력3감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치유불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(3~10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 위주 타겟범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5T, 5T, 5T </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동력3회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동력소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3행동력</t>
+  </si>
+  <si>
+    <t>3행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1회용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 방어력 비례 주변 아군 전체 방어력 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방 세로 3칸 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정 3x3범위 상대방적이동속도감소 + 약간데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신제외 주변 아군대폭 방어력증가 및 이속감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 공격을 아군 대신 피격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스데미지 1X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2턴
+방어력 2X증가
+스피드2감소
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴동안 스피드 7증가
+방어력 2X감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 6X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 8X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선5칸이동 공격력 5X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위 15X15 공격력 5X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위7x7 공격력 3X
+스피드 1감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1턴 지정범위15X15도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위7x7 공격력 2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기턴끌어오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번째 쓰는 스킬 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2배 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400/30/8/4 -&gt; 250/25/10/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서방향 3x8 (앞으로 3개)
+공격력 2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 원하는방향으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5칸이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채꼴반대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x3 연막(타겟팅스킬불가능)(아군이 이안에잇으면 타겟팅불가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몇턴간 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음스킬 데미지증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5행동력훔치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후방공격시 공격력 2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평타후 다음턴에
+공격력X4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">보스체력 50퍼 도달 시
+공격력1증가
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든범위
+공격력 20X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9행동력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10X10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 텔레포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 : 1 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3턴간 방어력 0으로만들고
+공격력 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 200감소 후 1턴간 
+2공격력증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7칸 공격력2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3x15 공격력2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력5X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x5지정범위 3턴간불장판 
+공격력2X (도트 1X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2턴간 방어력+15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴종료시 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군 광역 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채꼴 6칸
+공격력 3X (3개날라감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10x10 공격력2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평타칠때마다 다이스를 굴리고
+1=1배, 6=6배 공격력증가
+2=2, 3=3, 4=4, 5=5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2칸안에서 쏠시 공격력2배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미라클 비전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위5X5 달려들어서 자기중심으로 5X5십자
+공격력 4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5x5범위지정
+1턴동안
+스피드 3증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7x7범위 자신포함15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위 11x11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위5x5
+공격력 4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 9x9
+방어력 X1
+2턴동안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위9x9 방어력 5X
+스피드 3감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위5X5 공격력 2X
+보스 2칸뒤로
+자신 4칸뒤로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9x9지정해서 5x5범위딜
+공격력 10X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9x9지정범위
+공격력 4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9x9지정범위
+1턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7x7지정범위
+1턴간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9X9지정범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9x9 범위 공격력 5X
+1턴 공격력 1증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7X7 지정범위
+공격력 20X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11X11 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7X7 지정범위
+공격력 80X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7X7 지정범위
+부활시 체력 90퍼HP로 
+부활</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,7 +1582,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1743,13 +2180,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1915,11 +2466,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2314,13 +2913,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2364,13 +2963,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>504825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2414,13 +3013,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2464,13 +3063,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2514,13 +3113,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>476250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2564,13 +3163,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2614,13 +3213,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2664,14 +3263,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2714,13 +3313,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3066,7 +3665,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="600075"/>
@@ -3111,13 +3710,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>628649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3161,13 +3760,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>619124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3211,13 +3810,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>571499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3261,13 +3860,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3311,13 +3910,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3361,13 +3960,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>628649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3411,13 +4010,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3461,13 +4060,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>609600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3691,13 +4290,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3741,14 +4340,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>612913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3791,13 +4390,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3841,13 +4440,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>31060</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>631135</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3891,13 +4490,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>596349</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>607167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3941,13 +4540,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>662609</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3991,13 +4590,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>588066</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>596349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4041,13 +4640,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>24848</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>604631</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>604631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4262,13 +4861,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4312,13 +4911,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647699</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4362,13 +4961,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>609599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4412,13 +5011,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4462,13 +5061,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4512,13 +5111,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4562,13 +5161,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4612,13 +5211,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>32971</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>210650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>641961</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>606303</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4772,13 +5371,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4822,13 +5421,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>590549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4872,13 +5471,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4922,13 +5521,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>609599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4972,13 +5571,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5022,13 +5621,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>561975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5072,13 +5671,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>609599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>600074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5122,13 +5721,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>552450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5282,13 +5881,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>590550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5332,13 +5931,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676276</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5382,13 +5981,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>581025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5432,13 +6031,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5482,13 +6081,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>542924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>609599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5532,13 +6131,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2609850</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5582,13 +6181,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>600074</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5632,13 +6231,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>552450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>514350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5851,13 +6450,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5901,13 +6500,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5951,13 +6550,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6001,13 +6600,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6051,13 +6650,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6101,13 +6700,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>571500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>600075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6151,13 +6750,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6201,13 +6800,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6549,8 +7148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB9721C-C5BF-40AB-A79F-DB7289CA5A01}">
   <dimension ref="B2:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6591,10 +7190,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -6618,12 +7217,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -6633,12 +7232,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -6648,12 +7247,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="2" t="s">
         <v>107</v>
       </c>
@@ -6663,12 +7262,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="57"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
@@ -6678,12 +7277,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
@@ -6693,12 +7292,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="80"/>
       <c r="H9" s="2" t="s">
         <v>187</v>
       </c>
@@ -6707,12 +7306,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="67"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
@@ -6722,8 +7321,8 @@
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="84" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -6747,12 +7346,12 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
       <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
@@ -6762,12 +7361,12 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="57"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="80"/>
       <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
@@ -6777,12 +7376,12 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="57"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
@@ -6792,12 +7391,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="17" t="s">
         <v>203</v>
       </c>
@@ -6807,12 +7406,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="18" t="s">
         <v>197</v>
       </c>
@@ -6822,12 +7421,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="18" t="s">
         <v>209</v>
       </c>
@@ -6837,12 +7436,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
@@ -6852,12 +7451,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="57"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="23" t="s">
         <v>110</v>
       </c>
@@ -6867,8 +7466,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="68" t="s">
+      <c r="B20" s="73"/>
+      <c r="C20" s="84" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4">
@@ -6892,93 +7491,93 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
       <c r="I21" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="73"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="73"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J23" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="73"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" s="19"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="73"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="J23" s="19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="J24" s="19"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>223</v>
-      </c>
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
       <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6988,12 +7587,12 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="58"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="67"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="23" t="s">
         <v>115</v>
       </c>
@@ -7003,10 +7602,10 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4">
@@ -7030,87 +7629,87 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="45"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="46"/>
       <c r="H29" s="19" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="46"/>
       <c r="H30" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="68"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="46"/>
       <c r="H31" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="57"/>
-      <c r="C32" s="68"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="46"/>
       <c r="H32" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="68"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="46"/>
       <c r="H33" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7120,12 +7719,12 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="57"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="67"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
@@ -7135,8 +7734,8 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="68" t="s">
+      <c r="B36" s="73"/>
+      <c r="C36" s="84" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="4">
@@ -7160,12 +7759,12 @@
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
@@ -7175,100 +7774,100 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="57"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
       <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="70" t="s">
+      <c r="J38" s="86" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="68"/>
+      <c r="J39" s="84"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="68"/>
+      <c r="J40" s="84"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="68"/>
+      <c r="J41" s="84"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="62"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="68"/>
+      <c r="J42" s="84"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="57"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="67"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="71"/>
+      <c r="J43" s="87"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="57"/>
-      <c r="C44" s="68" t="s">
+      <c r="B44" s="73"/>
+      <c r="C44" s="84" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="4">
@@ -7284,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I44" s="19" t="s">
         <v>102</v>
@@ -7292,12 +7891,12 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="57"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="84"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="77"/>
       <c r="H45" s="2" t="s">
         <v>97</v>
       </c>
@@ -7307,12 +7906,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="57"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="64"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="84"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7322,12 +7921,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="57"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="2" t="s">
         <v>53</v>
       </c>
@@ -7337,12 +7936,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="57"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="2" t="s">
         <v>93</v>
       </c>
@@ -7352,44 +7951,44 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="57"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="84"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="19" t="s">
         <v>101</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="57"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="84"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="58"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="67"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="82"/>
+      <c r="F51" s="82"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="23" t="s">
         <v>51</v>
       </c>
@@ -7399,10 +7998,10 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="88" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="4">
@@ -7426,23 +8025,23 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="45"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
       <c r="G53" s="46"/>
       <c r="H53" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="57"/>
-      <c r="C54" s="72"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -7456,12 +8055,12 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="57"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="77"/>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
@@ -7471,12 +8070,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="57"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="64"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="80"/>
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
@@ -7486,12 +8085,12 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="57"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="64"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="21" t="s">
         <v>108</v>
       </c>
@@ -7501,12 +8100,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="57"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="64"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="2" t="s">
         <v>91</v>
       </c>
@@ -7516,14 +8115,14 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="58"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="67"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="23" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I59" s="23" t="s">
         <v>90</v>
@@ -7754,10 +8353,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -7765,33 +8364,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="62"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="80"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="62"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="80"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="83"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="115" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="100"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -7799,8 +8398,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="65"/>
-      <c r="C15" s="67"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="83"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -7808,11 +8407,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="68" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="84" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -7821,36 +8420,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="62"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="68"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="84"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="68"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="68"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="62"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -7859,75 +8458,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="62"/>
-      <c r="C21" s="64"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="68" t="s">
+      <c r="E21" s="84" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="64"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="80"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="62"/>
-      <c r="C23" s="64"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="62"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
-      <c r="C25" s="64"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="62"/>
-      <c r="C26" s="64"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="92"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="109"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="71"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="77"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -7937,9 +8536,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="64"/>
-      <c r="E29" s="94" t="s">
+      <c r="B29" s="78"/>
+      <c r="C29" s="80"/>
+      <c r="E29" s="110" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -7947,35 +8546,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="64"/>
-      <c r="E30" s="95"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="80"/>
+      <c r="E30" s="111"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="62"/>
-      <c r="C31" s="64"/>
-      <c r="E31" s="95"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="80"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="92"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="96"/>
+      <c r="E32" s="112"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="77"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -7983,8 +8582,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="109"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -7992,19 +8591,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="98"/>
+      <c r="C35" s="114"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="98"/>
+      <c r="C36" s="114"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -8136,10 +8735,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="84" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8148,32 +8747,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="68"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="57"/>
-      <c r="C6" s="68"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="69"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="73"/>
+      <c r="C8" s="84" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8182,24 +8781,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="57"/>
-      <c r="C9" s="68"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="84"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="57"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="57"/>
-      <c r="C11" s="68" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="84" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8208,26 +8807,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="84"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="58"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="84" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -8236,24 +8835,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="68"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="57"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="73"/>
+      <c r="C17" s="84" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -8262,64 +8861,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
-      <c r="C18" s="68"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="84"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="84"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="84"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="57"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="84"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="68"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="84"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="57"/>
-      <c r="C23" s="68"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="57"/>
-      <c r="C24" s="69"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="68" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="84" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -8328,58 +8927,58 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="68"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="84"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="68"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="84"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="57"/>
-      <c r="C28" s="68"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="84"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="68"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
-      <c r="C30" s="68"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="58"/>
-      <c r="C31" s="69"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="88" t="s">
         <v>33</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -8388,82 +8987,82 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
-      <c r="C33" s="72"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="57"/>
-      <c r="C34" s="72"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="57"/>
-      <c r="C35" s="72"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
       </c>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
-      <c r="C36" s="72"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="58"/>
-      <c r="C37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="89"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
       </c>
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="88" t="s">
         <v>64</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
-      <c r="C39" s="72"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="72"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="57"/>
-      <c r="C41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="57"/>
-      <c r="C42" s="72"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="58"/>
-      <c r="C43" s="73"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
     </row>
@@ -8633,10 +9232,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8652,23 +9251,30 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" customWidth="1"/>
-    <col min="15" max="15" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29.125" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
       <c r="N1" s="17"/>
@@ -8677,456 +9283,638 @@
       <c r="Q1" s="17"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
-    </row>
-    <row r="20" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
       <c r="T21" t="s">
-        <v>258</v>
-      </c>
-      <c r="U21" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="V21" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="W21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+        <v>254</v>
+      </c>
+      <c r="X21" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
       <c r="S22" t="s">
         <v>64</v>
       </c>
-      <c r="T22">
-        <v>2000</v>
-      </c>
-      <c r="U22">
-        <v>20</v>
-      </c>
-      <c r="V22">
+      <c r="T22" s="20">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20">
+        <v>50</v>
+      </c>
+      <c r="W22" s="20">
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="X22" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
       <c r="S23" t="s">
+        <v>251</v>
+      </c>
+      <c r="T23" s="20">
+        <v>1</v>
+      </c>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20">
+        <v>1</v>
+      </c>
+      <c r="W23" s="20">
+        <v>1</v>
+      </c>
+      <c r="X23" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A24" s="56"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="57"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+    </row>
+    <row r="25" spans="1:26" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="93"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="U26" s="61" t="s">
+        <v>314</v>
+      </c>
+      <c r="V26" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="W26" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="X26" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="T23">
-        <v>50</v>
-      </c>
-      <c r="U23">
-        <v>10</v>
-      </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="26" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q27" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="47" t="s">
+      <c r="Y26" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z26" s="63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>400</v>
+      </c>
+      <c r="N27" s="4">
+        <v>30</v>
+      </c>
+      <c r="O27" s="4">
+        <v>8</v>
+      </c>
+      <c r="P27" s="4">
+        <v>4</v>
+      </c>
+      <c r="S27" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="U27" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="X27" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="Z27" s="65" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="S28" s="64"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="66"/>
+    </row>
+    <row r="29" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="47" t="s">
+      <c r="N29" s="2"/>
+      <c r="O29" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q29" s="53"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="66"/>
+    </row>
+    <row r="30" spans="1:26" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
-    </row>
-    <row r="30" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="47" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="S30" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="T30" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="U30" s="68" t="s">
+        <v>270</v>
+      </c>
+      <c r="V30" s="69" t="s">
+        <v>270</v>
+      </c>
+      <c r="W30" s="69" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" s="69" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z30" s="70" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
-    </row>
-    <row r="31" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="47" t="s">
+      <c r="N31" s="2"/>
+      <c r="O31" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
-    </row>
-    <row r="32" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="47" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
+      <c r="O33" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="34" spans="12:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L34" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L35" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="M36" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>296</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>270</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="F3:F6"/>
@@ -9154,10 +9942,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="I23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q26" sqref="N26:Q26"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9172,440 +9960,527 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L26" s="50"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P26" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q26" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="53"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="M25" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="4">
+        <v>400</v>
+      </c>
+      <c r="N26" s="4">
+        <v>35</v>
+      </c>
+      <c r="O26" s="4">
+        <v>4</v>
+      </c>
+      <c r="P26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L27" s="50"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="28" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L28" s="47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
+      <c r="O28" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q28" s="53" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>198</v>
+        <v>337</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q29" s="53"/>
     </row>
     <row r="30" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="47" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
+      <c r="O30" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="47" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
+      <c r="O31" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="47" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="47" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
+      <c r="O33" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="34" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L34" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="M36" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>280</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -9639,10 +10514,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9657,427 +10532,513 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.25" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80" t="s">
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
-    </row>
-    <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L25" s="50"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O25" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P25" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q25" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L26" s="55" t="s">
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+      <c r="M24" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="M25" s="4">
+        <v>500</v>
+      </c>
+      <c r="N25" s="4">
+        <v>50</v>
+      </c>
+      <c r="O25" s="4">
+        <v>2</v>
+      </c>
+      <c r="P25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L26" s="50"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="53"/>
-    </row>
-    <row r="27" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="55" t="s">
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q27" s="53"/>
+    </row>
+    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="53"/>
-    </row>
-    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="55" t="s">
-        <v>213</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>214</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
+      <c r="O28" s="71" t="s">
+        <v>292</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q28" s="53" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="55" t="s">
-        <v>216</v>
+      <c r="L29" s="6" t="s">
+        <v>235</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
+      <c r="O29" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="55" t="s">
-        <v>221</v>
+      <c r="L30" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
+      <c r="O30" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="55"/>
+      <c r="L31" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="M31" s="2" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
+      <c r="O31" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="47" t="s">
+      <c r="L32" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q32" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="53"/>
-    </row>
-    <row r="33" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L33" s="48" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="54"/>
-    </row>
-    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="M34" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="P34" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q34" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
@@ -10110,10 +11071,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="K28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10128,428 +11089,515 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.625" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63" t="s">
+      <c r="G21" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q27" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="56" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>150</v>
+      </c>
+      <c r="N27" s="4">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="56" t="s">
-        <v>227</v>
-      </c>
       <c r="M29" s="19" t="s">
-        <v>228</v>
+        <v>317</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
+      <c r="O29" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L30" s="56" t="s">
-        <v>243</v>
+      <c r="L30" s="55" t="s">
+        <v>224</v>
       </c>
       <c r="M30" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
+      <c r="O30" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="56" t="s">
-        <v>244</v>
+      <c r="L31" s="55" t="s">
+        <v>239</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>226</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
+      <c r="O31" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L32" s="56" t="s">
-        <v>245</v>
+      <c r="L32" s="55" t="s">
+        <v>344</v>
       </c>
       <c r="M32" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q32" s="53"/>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="56" t="s">
-        <v>246</v>
+      <c r="L33" s="55" t="s">
+        <v>241</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
+      <c r="O33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="47" t="s">
+      <c r="L34" s="55" t="s">
+        <v>242</v>
+      </c>
+      <c r="M34" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="48" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M35" s="49" t="s">
+      <c r="M36" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -10583,10 +11631,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="H19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34:O34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10602,430 +11650,517 @@
     <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="60.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" customWidth="1"/>
+    <col min="15" max="15" width="27.125" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="s">
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q27" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="19" t="s">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>150</v>
+      </c>
+      <c r="N27" s="4">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="19" t="s">
+      <c r="M29" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
-    </row>
-    <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
+      <c r="O29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M30" s="31" t="s">
-        <v>251</v>
+        <v>49</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q30" s="53"/>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="2" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="M31" s="31" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
+      <c r="O31" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="2" t="s">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="53"/>
+      <c r="O32" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q32" s="53" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L33" s="2" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="M33" s="31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
+      <c r="O33" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="M34" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="23" t="s">
+      <c r="M35" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M35" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="M36" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="N36" s="49"/>
+      <c r="O36" s="72" t="s">
+        <v>356</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
@@ -11058,10 +12193,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11076,428 +12211,505 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="12.875" customWidth="1"/>
     <col min="13" max="13" width="35.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.25" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q27" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="M28" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>250</v>
+      </c>
+      <c r="N27" s="4">
+        <v>20</v>
+      </c>
+      <c r="O27" s="4">
+        <v>2</v>
+      </c>
+      <c r="P27" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>256</v>
+      <c r="L29" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
+      <c r="O29" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
+      <c r="O30" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L31" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>279</v>
+      </c>
       <c r="Q31" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q32" s="53"/>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="53"/>
-    </row>
-    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="19" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q33" s="53"/>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
-    </row>
-    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M34" s="2" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="23" t="s">
+      <c r="P34" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q35" s="53"/>
+    </row>
+    <row r="36" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M35" s="23" t="s">
+      <c r="M36" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
@@ -11530,10 +12742,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11548,428 +12760,517 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="82"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="85"/>
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="101"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63" t="s">
+      <c r="A3" s="99"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="86"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="86"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="86"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="A7" s="99"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="86"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="86"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="86"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="86"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="86"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="86"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="86"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="86"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="s">
+      <c r="A15" s="99"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="86"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="86"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="86"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="86"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="86"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="86"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="s">
+      <c r="A21" s="99"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="86"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="86"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
+      <c r="A23" s="100"/>
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="87"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="103"/>
     </row>
     <row r="24" spans="1:17" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="79"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="L27" s="50"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="O27" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="P27" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q27" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="53"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
+    </row>
+    <row r="25" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="4">
+        <v>150</v>
+      </c>
+      <c r="N27" s="4">
+        <v>15</v>
+      </c>
+      <c r="O27" s="4">
+        <v>4</v>
+      </c>
+      <c r="P27" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L28" s="50"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="P28" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q28" s="52" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L29" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M29" s="18" t="s">
-        <v>234</v>
+        <v>54</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="53"/>
+      <c r="O29" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L30" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q30" s="53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="53"/>
-    </row>
-    <row r="31" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L31" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="M31" s="18" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="53"/>
+      <c r="O31" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q31" s="53" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M32" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q32" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="53"/>
-    </row>
-    <row r="33" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L33" s="21" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q33" s="53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L34" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="53"/>
-    </row>
-    <row r="34" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L34" s="2" t="s">
+      <c r="N34" s="2"/>
+      <c r="O34" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="53"/>
-    </row>
-    <row r="35" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L35" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="M35" s="23" t="s">
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q35" s="53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M36" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="54"/>
-    </row>
-    <row r="36" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="P36" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q36" s="54" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A1:J1"/>
@@ -15202,8 +16503,8 @@
       <c r="V50" s="35"/>
       <c r="W50" s="35"/>
       <c r="X50" s="35"/>
-      <c r="Y50" s="90"/>
-      <c r="Z50" s="90"/>
+      <c r="Y50" s="106"/>
+      <c r="Z50" s="106"/>
       <c r="AA50" s="35"/>
       <c r="AB50" s="35"/>
       <c r="AC50" s="35"/>
@@ -15252,8 +16553,8 @@
       <c r="BT50" s="35"/>
       <c r="BU50" s="35"/>
       <c r="BV50" s="35"/>
-      <c r="BW50" s="90"/>
-      <c r="BX50" s="90"/>
+      <c r="BW50" s="106"/>
+      <c r="BX50" s="106"/>
       <c r="BY50" s="35"/>
       <c r="BZ50" s="35"/>
       <c r="CA50" s="35"/>
@@ -17977,8 +19278,8 @@
       <c r="V100" s="38"/>
       <c r="W100" s="38"/>
       <c r="X100" s="38"/>
-      <c r="Y100" s="89"/>
-      <c r="Z100" s="89"/>
+      <c r="Y100" s="105"/>
+      <c r="Z100" s="105"/>
       <c r="AA100" s="38"/>
       <c r="AB100" s="38"/>
       <c r="AC100" s="38"/>
@@ -18027,8 +19328,8 @@
       <c r="BT100" s="38"/>
       <c r="BU100" s="38"/>
       <c r="BV100" s="38"/>
-      <c r="BW100" s="89"/>
-      <c r="BX100" s="89"/>
+      <c r="BW100" s="105"/>
+      <c r="BX100" s="105"/>
       <c r="BY100" s="38"/>
       <c r="BZ100" s="38"/>
       <c r="CA100" s="38"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC965BF-FF34-4490-94CF-CB0F957BD6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569A412-FB61-4B07-BB0F-EE39C0E7139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="366">
   <si>
     <t>BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1222,23 +1222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지정범위 15X15 공격력 5X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정범위7x7 공격력 3X
-스피드 1감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1턴 지정범위15X15도발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정범위7x7 공격력 2X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자기턴끌어오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1332,10 +1315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10X10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자기 텔레포트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1366,11 +1345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5x5지정범위 3턴간불장판 
-공격력2X (도트 1X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2턴간 방어력+15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,10 +1363,6 @@
   <si>
     <t>부채꼴 6칸
 공격력 3X (3개날라감)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10x10 공격력2X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1415,88 +1385,130 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5x5범위지정
+    <t xml:space="preserve">살아나라 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18x18 공격력2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 13x13
+방어력 X1
+2턴동안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7x7범위지정
 1턴동안
 스피드 3증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7x7범위 자신포함15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정범위 11x11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지정범위5x5
+    <t>지정범위 19x19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위7x7
 공격력 4X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>범위 9x9
-방어력 X1
-2턴동안</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위9x9 방어력 5X
+    <t>지정범위11x11 공격력 2X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위11x11 공격력 3X
+스피드 1감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위15x15 방어력 5X
 스피드 3감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지정범위5X5 공격력 2X
+    <t>1턴 지정범위21X21도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15x15지정해서 5x5범위딜
+공격력 10X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15x15지정범위
+공격력 4X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지정범위5X5공격력 2X
 보스 2칸뒤로
 자신 4칸뒤로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9x9지정해서 5x5범위딜
-공격력 10X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9x9지정범위
-공격력 4X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9x9지정범위
+    <t>지정범위 23X23 공격력 5X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12x12지정범위 3턴간불장판 
+공격력2X (도트 1X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15x15지정범위
 1턴간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7x7지정범위
+    <t>11x11지정범위
 1턴간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9X9지정범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9x9 범위 공격력 5X
+    <t>15X15지정범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11X11 지정범위
+공격력 20X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15x15 범위 공격력 5X
 1턴 공격력 1증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7X7 지정범위
-공격력 20X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11X11 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7X7 지정범위
+    <t>11x11 지정범위
 공격력 80X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7X7 지정범위
+    <t>11X11 지정범위
 부활시 체력 90퍼HP로 
 부활</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17X17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13X13지정범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15X15 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11x11범위 자신포함 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는스킬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2520,10 +2532,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2553,16 +2568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2622,23 +2634,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2651,6 +2651,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7190,10 +7202,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -7217,12 +7229,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -7232,12 +7244,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -7247,12 +7259,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="2" t="s">
         <v>107</v>
       </c>
@@ -7262,12 +7274,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
@@ -7277,12 +7289,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
@@ -7292,12 +7304,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="2" t="s">
         <v>187</v>
       </c>
@@ -7306,12 +7318,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="73"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
@@ -7321,8 +7333,8 @@
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="74" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -7346,12 +7358,12 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
@@ -7361,12 +7373,12 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
@@ -7376,12 +7388,12 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
@@ -7391,12 +7403,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="17" t="s">
         <v>203</v>
       </c>
@@ -7406,12 +7418,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="18" t="s">
         <v>197</v>
       </c>
@@ -7421,12 +7433,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="18" t="s">
         <v>209</v>
       </c>
@@ -7436,12 +7448,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
@@ -7451,12 +7463,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="73"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="23" t="s">
         <v>110</v>
       </c>
@@ -7466,8 +7478,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4">
@@ -7491,12 +7503,12 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
@@ -7508,12 +7520,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="6" t="s">
         <v>235</v>
       </c>
@@ -7525,12 +7537,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="6" t="s">
         <v>236</v>
       </c>
@@ -7542,12 +7554,12 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="6" t="s">
         <v>237</v>
       </c>
@@ -7557,12 +7569,12 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="6" t="s">
         <v>238</v>
       </c>
@@ -7572,12 +7584,12 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
@@ -7587,12 +7599,12 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="74"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="23" t="s">
         <v>115</v>
       </c>
@@ -7602,10 +7614,10 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4">
@@ -7629,8 +7641,8 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="45"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -7644,8 +7656,8 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -7659,8 +7671,8 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="73"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -7674,8 +7686,8 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="73"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -7689,8 +7701,8 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -7704,12 +7716,12 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7719,12 +7731,12 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="73"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
@@ -7734,8 +7746,8 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="74" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="4">
@@ -7759,12 +7771,12 @@
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="73"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
@@ -7774,100 +7786,100 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="73"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="84"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="84"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="84"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="84"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="73"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="87"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="84" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="74" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="4">
@@ -7891,12 +7903,12 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="2" t="s">
         <v>97</v>
       </c>
@@ -7906,12 +7918,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="80"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7921,12 +7933,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="80"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="2" t="s">
         <v>53</v>
       </c>
@@ -7936,12 +7948,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="2" t="s">
         <v>93</v>
       </c>
@@ -7951,12 +7963,12 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="80"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="19" t="s">
         <v>101</v>
       </c>
@@ -7968,12 +7980,12 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="73"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
@@ -7983,12 +7995,12 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="74"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="23" t="s">
         <v>51</v>
       </c>
@@ -7998,7 +8010,7 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="88" t="s">
@@ -8025,7 +8037,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="88"/>
       <c r="D53" s="45"/>
       <c r="E53" s="20"/>
@@ -8040,7 +8052,7 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="88"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
@@ -8055,12 +8067,12 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="73"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="88"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
@@ -8070,12 +8082,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="73"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="88"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
@@ -8085,12 +8097,12 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="88"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="21" t="s">
         <v>108</v>
       </c>
@@ -8100,12 +8112,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="88"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="2" t="s">
         <v>91</v>
       </c>
@@ -8115,12 +8127,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="74"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="83"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="23" t="s">
         <v>229</v>
       </c>
@@ -8132,12 +8144,6 @@
     <row r="60" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D45:G51"/>
-    <mergeCell ref="D55:G59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C59"/>
     <mergeCell ref="B3:B27"/>
     <mergeCell ref="B28:B51"/>
     <mergeCell ref="D4:G10"/>
@@ -8150,6 +8156,12 @@
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="D37:G43"/>
     <mergeCell ref="D21:G27"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D45:G51"/>
+    <mergeCell ref="D55:G59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8353,10 +8365,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -8364,33 +8376,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="78"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="81"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -8398,8 +8410,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -8407,11 +8419,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -8420,36 +8432,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="84"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="84"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -8458,75 +8470,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="74" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="84"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="84"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="84"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="78"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="84"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="87"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -8536,9 +8548,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
-      <c r="E29" s="110" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="E29" s="114" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -8546,35 +8558,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="78"/>
-      <c r="C30" s="80"/>
-      <c r="E30" s="111"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="78"/>
-      <c r="C31" s="80"/>
-      <c r="E31" s="111"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="112"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="77"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -8582,8 +8594,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -8591,19 +8603,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="114"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="114"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -8691,16 +8703,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="B16:C27"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="B16:C27"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="E29:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8735,10 +8747,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="74" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8747,32 +8759,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8781,24 +8793,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="73"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8807,26 +8819,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="74"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -8835,24 +8847,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="73"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="74" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -8861,64 +8873,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="73"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="73"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="84" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="74" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -8927,55 +8939,55 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="74"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="88" t="s">
@@ -8987,7 +8999,7 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="88"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
@@ -8995,7 +9007,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="88"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -9003,7 +9015,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="88"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
@@ -9011,7 +9023,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="88"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -9019,7 +9031,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="74"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="89"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
@@ -9027,7 +9039,7 @@
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="85" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="88" t="s">
@@ -9037,31 +9049,31 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="88"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="88"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="88"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="88"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="74"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="89"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -9234,8 +9246,8 @@
   </sheetPr>
   <dimension ref="A1:Z36"/>
   <sheetViews>
-    <sheetView topLeftCell="K24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9296,242 +9308,242 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
       <c r="T21" t="s">
         <v>252</v>
@@ -9548,14 +9560,14 @@
     </row>
     <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
       <c r="S22" t="s">
         <v>64</v>
@@ -9579,11 +9591,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -9655,7 +9667,7 @@
         <v>260</v>
       </c>
       <c r="U26" s="61" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="V26" s="62" t="s">
         <v>261</v>
@@ -9690,25 +9702,25 @@
         <v>56</v>
       </c>
       <c r="T27" s="58" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="U27" s="58" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="W27" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X27" s="4" t="s">
         <v>262</v>
       </c>
       <c r="Y27" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="Z27" s="65" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
@@ -9746,7 +9758,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>279</v>
@@ -9772,7 +9784,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>285</v>
@@ -9814,7 +9826,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>277</v>
@@ -9832,7 +9844,7 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>279</v>
@@ -9884,7 +9896,7 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="21" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>276</v>
@@ -9945,7 +9957,7 @@
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9960,7 +9972,7 @@
     <col min="10" max="10" width="1.5" customWidth="1"/>
     <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9992,256 +10004,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10249,11 +10261,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -10331,11 +10343,11 @@
         <v>196</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>285</v>
@@ -10349,11 +10361,11 @@
         <v>199</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>279</v>
@@ -10369,7 +10381,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>278</v>
@@ -10387,7 +10399,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>286</v>
@@ -10401,11 +10413,11 @@
         <v>203</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>279</v>
@@ -10421,7 +10433,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>285</v>
@@ -10457,7 +10469,7 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="21" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>276</v>
@@ -10474,7 +10486,9 @@
         <v>201</v>
       </c>
       <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
+      <c r="O36" s="49" t="s">
+        <v>339</v>
+      </c>
       <c r="P36" s="49" t="s">
         <v>279</v>
       </c>
@@ -10484,6 +10498,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -10498,9 +10515,6 @@
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G21:I23"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10516,8 +10530,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10564,254 +10578,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10819,11 +10833,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96" t="s">
         <v>162</v>
@@ -10939,7 +10953,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>285</v>
@@ -10975,7 +10989,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>278</v>
@@ -10993,7 +11007,7 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="21" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>289</v>
@@ -11029,7 +11043,7 @@
       </c>
       <c r="N34" s="49"/>
       <c r="O34" s="49" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="P34" s="49" t="s">
         <v>286</v>
@@ -11041,14 +11055,6 @@
     <row r="35" spans="12:17" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -11058,6 +11064,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11073,8 +11087,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11121,256 +11135,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11378,11 +11392,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -11462,7 +11476,7 @@
         <v>40</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
@@ -11484,7 +11498,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>276</v>
@@ -11502,7 +11516,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>285</v>
@@ -11513,14 +11527,14 @@
     </row>
     <row r="32" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L32" s="55" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M32" s="19" t="s">
         <v>223</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>279</v>
@@ -11590,7 +11604,7 @@
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="P36" s="49" t="s">
         <v>278</v>
@@ -11601,6 +11615,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11611,13 +11632,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11633,7 +11647,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
@@ -11682,256 +11696,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11939,11 +11953,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -12027,7 +12041,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>277</v>
@@ -12041,11 +12055,11 @@
         <v>49</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>279</v>
@@ -12061,10 +12075,10 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q31" s="53" t="s">
         <v>270</v>
@@ -12079,10 +12093,10 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="21" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q32" s="53" t="s">
         <v>284</v>
@@ -12097,10 +12111,10 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="53" t="s">
         <v>270</v>
@@ -12111,11 +12125,11 @@
         <v>47</v>
       </c>
       <c r="M34" s="31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>278</v>
@@ -12129,11 +12143,11 @@
         <v>121</v>
       </c>
       <c r="M35" s="31" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>285</v>
@@ -12151,10 +12165,10 @@
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="72" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q36" s="54" t="s">
         <v>270</v>
@@ -12163,6 +12177,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -12173,13 +12194,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12243,254 +12257,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12498,11 +12512,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -12582,11 +12596,11 @@
         <v>234</v>
       </c>
       <c r="M29" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>285</v>
@@ -12604,7 +12618,7 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>277</v>
@@ -12622,7 +12636,7 @@
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>279</v>
@@ -12638,7 +12652,7 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="21" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>279</v>
@@ -12654,7 +12668,7 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>279</v>
@@ -12682,7 +12696,7 @@
         <v>52</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -12700,7 +12714,7 @@
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P36" s="49" t="s">
         <v>278</v>
@@ -12712,6 +12726,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -12722,13 +12743,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12744,8 +12758,8 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView topLeftCell="H24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12792,254 +12806,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13047,11 +13061,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -13135,7 +13149,7 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>276</v>
@@ -13156,7 +13170,7 @@
         <v>358</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q30" s="53" t="s">
         <v>282</v>
@@ -13167,11 +13181,11 @@
         <v>89</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>285</v>
@@ -13185,14 +13199,14 @@
         <v>55</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="Q32" s="53" t="s">
         <v>271</v>
@@ -13207,10 +13221,10 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="21" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="Q33" s="53" t="s">
         <v>270</v>
@@ -13225,13 +13239,13 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q34" s="53" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="35" spans="12:17" ht="48" customHeight="1" x14ac:dyDescent="0.3">
@@ -13243,7 +13257,7 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>277</v>
@@ -13261,7 +13275,7 @@
       </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P36" s="49" t="s">
         <v>278</v>
@@ -13273,6 +13287,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -13283,13 +13304,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dungeons+map.xlsx
+++ b/Dungeons+map.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gtittest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Atents_Dungeons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88565546-545F-451F-84A3-BFD688DBCDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB3BCCD-367E-4B9D-866C-A8814B7AE71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
+    <workbookView xWindow="15" yWindow="2955" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2184AE29-A8E8-4981-852B-AC6CF950D86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="4" r:id="rId1"/>
@@ -2536,10 +2536,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2569,16 +2572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2638,23 +2638,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2667,6 +2655,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7206,10 +7206,10 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="74" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4">
@@ -7233,12 +7233,12 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="73"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="2" t="s">
         <v>105</v>
       </c>
@@ -7248,12 +7248,12 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="17" t="s">
         <v>185</v>
       </c>
@@ -7263,12 +7263,12 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="80"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="2" t="s">
         <v>107</v>
       </c>
@@ -7278,12 +7278,12 @@
       <c r="J6" s="17"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="73"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
@@ -7293,12 +7293,12 @@
       <c r="J7" s="17"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="2" t="s">
         <v>106</v>
       </c>
@@ -7308,12 +7308,12 @@
       <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="2" t="s">
         <v>187</v>
       </c>
@@ -7322,12 +7322,12 @@
       </c>
     </row>
     <row r="10" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="73"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="23" t="s">
         <v>192</v>
       </c>
@@ -7337,8 +7337,8 @@
       <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="74" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="4">
@@ -7362,12 +7362,12 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="2" t="s">
         <v>199</v>
       </c>
@@ -7377,12 +7377,12 @@
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="80"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
       <c r="H13" s="17" t="s">
         <v>195</v>
       </c>
@@ -7392,12 +7392,12 @@
       <c r="J13" s="17"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="80"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="17" t="s">
         <v>208</v>
       </c>
@@ -7407,12 +7407,12 @@
       <c r="J14" s="17"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
       <c r="H15" s="17" t="s">
         <v>203</v>
       </c>
@@ -7422,12 +7422,12 @@
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="18" t="s">
         <v>197</v>
       </c>
@@ -7437,12 +7437,12 @@
       <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="18" t="s">
         <v>209</v>
       </c>
@@ -7452,12 +7452,12 @@
       <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="17" t="s">
         <v>205</v>
       </c>
@@ -7467,12 +7467,12 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="73"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="23" t="s">
         <v>110</v>
       </c>
@@ -7482,8 +7482,8 @@
       <c r="J19" s="23"/>
     </row>
     <row r="20" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="85"/>
+      <c r="C20" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="4">
@@ -7507,12 +7507,12 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="6" t="s">
         <v>212</v>
       </c>
@@ -7524,12 +7524,12 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="6" t="s">
         <v>235</v>
       </c>
@@ -7541,12 +7541,12 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="6" t="s">
         <v>236</v>
       </c>
@@ -7558,12 +7558,12 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="73"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="6" t="s">
         <v>237</v>
       </c>
@@ -7573,12 +7573,12 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="6" t="s">
         <v>238</v>
       </c>
@@ -7588,12 +7588,12 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
@@ -7603,12 +7603,12 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="74"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="23" t="s">
         <v>115</v>
       </c>
@@ -7618,10 +7618,10 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="4">
@@ -7645,8 +7645,8 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="45"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -7660,8 +7660,8 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="45"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
@@ -7675,8 +7675,8 @@
       <c r="J30" s="19"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="73"/>
-      <c r="C31" s="84"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="45"/>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -7690,8 +7690,8 @@
       <c r="J31" s="19"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="73"/>
-      <c r="C32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="74"/>
       <c r="D32" s="45"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -7705,8 +7705,8 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
-      <c r="C33" s="84"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="74"/>
       <c r="D33" s="45"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -7720,12 +7720,12 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="77"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="78"/>
       <c r="H34" s="2" t="s">
         <v>42</v>
       </c>
@@ -7735,12 +7735,12 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="73"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="83"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="84"/>
       <c r="H35" s="23" t="s">
         <v>41</v>
       </c>
@@ -7750,8 +7750,8 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="74" t="s">
         <v>170</v>
       </c>
       <c r="D36" s="4">
@@ -7775,12 +7775,12 @@
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="73"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="77"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="78"/>
       <c r="H37" s="2" t="s">
         <v>49</v>
       </c>
@@ -7790,100 +7790,100 @@
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B38" s="73"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="80"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="2" t="s">
         <v>117</v>
       </c>
       <c r="I38" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J38" s="86" t="s">
+      <c r="J38" s="73" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="80"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J39" s="84"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="80"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I40" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="84"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I41" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J41" s="84"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="80"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I42" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J42" s="84"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="73"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="83"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="84"/>
       <c r="H43" s="23" t="s">
         <v>48</v>
       </c>
       <c r="I43" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="J43" s="87"/>
+      <c r="J43" s="75"/>
     </row>
     <row r="44" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="84" t="s">
+      <c r="B44" s="85"/>
+      <c r="C44" s="74" t="s">
         <v>173</v>
       </c>
       <c r="D44" s="4">
@@ -7907,12 +7907,12 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B45" s="73"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="F45" s="76"/>
-      <c r="G45" s="77"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="78"/>
       <c r="H45" s="2" t="s">
         <v>97</v>
       </c>
@@ -7922,12 +7922,12 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B46" s="73"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="80"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="2" t="s">
         <v>99</v>
       </c>
@@ -7937,12 +7937,12 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B47" s="73"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="80"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="2" t="s">
         <v>53</v>
       </c>
@@ -7952,12 +7952,12 @@
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="73"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="78"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="80"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="2" t="s">
         <v>93</v>
       </c>
@@ -7967,12 +7967,12 @@
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="80"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="19" t="s">
         <v>101</v>
       </c>
@@ -7984,12 +7984,12 @@
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B50" s="73"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="80"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="2" t="s">
         <v>52</v>
       </c>
@@ -7999,12 +7999,12 @@
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="74"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="83"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="82"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="84"/>
       <c r="H51" s="23" t="s">
         <v>51</v>
       </c>
@@ -8014,7 +8014,7 @@
       <c r="J51" s="23"/>
     </row>
     <row r="52" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C52" s="88" t="s">
@@ -8041,7 +8041,7 @@
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
+      <c r="B53" s="85"/>
       <c r="C53" s="88"/>
       <c r="D53" s="45"/>
       <c r="E53" s="20"/>
@@ -8056,7 +8056,7 @@
       <c r="J53" s="18"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
+      <c r="B54" s="85"/>
       <c r="C54" s="88"/>
       <c r="D54" s="45"/>
       <c r="E54" s="20"/>
@@ -8071,12 +8071,12 @@
       <c r="J54" s="18"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="73"/>
+      <c r="B55" s="85"/>
       <c r="C55" s="88"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="77"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="2" t="s">
         <v>55</v>
       </c>
@@ -8086,12 +8086,12 @@
       <c r="J55" s="18"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="73"/>
+      <c r="B56" s="85"/>
       <c r="C56" s="88"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="80"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="2" t="s">
         <v>95</v>
       </c>
@@ -8101,12 +8101,12 @@
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
+      <c r="B57" s="85"/>
       <c r="C57" s="88"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="80"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="21" t="s">
         <v>108</v>
       </c>
@@ -8116,12 +8116,12 @@
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
+      <c r="B58" s="85"/>
       <c r="C58" s="88"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="80"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="2" t="s">
         <v>91</v>
       </c>
@@ -8131,12 +8131,12 @@
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="74"/>
+      <c r="B59" s="86"/>
       <c r="C59" s="89"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="83"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="83"/>
+      <c r="G59" s="84"/>
       <c r="H59" s="23" t="s">
         <v>229</v>
       </c>
@@ -8148,12 +8148,6 @@
     <row r="60" spans="2:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J38:J43"/>
-    <mergeCell ref="D45:G51"/>
-    <mergeCell ref="D55:G59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="C52:C59"/>
     <mergeCell ref="B3:B27"/>
     <mergeCell ref="B28:B51"/>
     <mergeCell ref="D4:G10"/>
@@ -8166,6 +8160,12 @@
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="D37:G43"/>
     <mergeCell ref="D21:G27"/>
+    <mergeCell ref="J38:J43"/>
+    <mergeCell ref="D45:G51"/>
+    <mergeCell ref="D55:G59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="C52:C59"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8369,10 +8369,10 @@
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="8" t="s">
         <v>20</v>
       </c>
@@ -8380,33 +8380,33 @@
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="78"/>
-      <c r="C11" s="80"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="81"/>
       <c r="D11" t="s">
         <v>74</v>
       </c>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="78"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" t="s">
         <v>75</v>
       </c>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="81"/>
-      <c r="C13" s="83"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="84"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="116"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="30" t="s">
         <v>76</v>
       </c>
@@ -8414,8 +8414,8 @@
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81"/>
-      <c r="C15" s="83"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="84"/>
       <c r="D15" s="26" t="s">
         <v>77</v>
       </c>
@@ -8423,11 +8423,11 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="80"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -8436,36 +8436,36 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="84"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="78"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="84"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="74"/>
       <c r="E18" s="18" t="s">
         <v>62</v>
       </c>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="78"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="84"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="74"/>
       <c r="E19" s="18" t="s">
         <v>66</v>
       </c>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="29" t="s">
         <v>69</v>
       </c>
@@ -8474,75 +8474,75 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="78"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="84" t="s">
+      <c r="E21" s="74" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="78"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="84"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="78"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="84"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="78"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="84"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="78"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="84"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="78"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="84"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B27" s="108"/>
-      <c r="C27" s="109"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="108"/>
       <c r="D27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="87"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="77"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="8"/>
       <c r="E28" s="17" t="s">
         <v>30</v>
@@ -8552,9 +8552,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="78"/>
-      <c r="C29" s="80"/>
-      <c r="E29" s="110" t="s">
+      <c r="B29" s="79"/>
+      <c r="C29" s="81"/>
+      <c r="E29" s="114" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -8562,35 +8562,35 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="78"/>
-      <c r="C30" s="80"/>
-      <c r="E30" s="111"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="81"/>
+      <c r="E30" s="115"/>
       <c r="F30" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="78"/>
-      <c r="C31" s="80"/>
-      <c r="E31" s="111"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="81"/>
+      <c r="E31" s="115"/>
       <c r="F31" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="108"/>
-      <c r="C32" s="109"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="112"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="19" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="77"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="8" t="s">
         <v>16</v>
       </c>
@@ -8598,8 +8598,8 @@
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="11" t="s">
         <v>17</v>
       </c>
@@ -8607,19 +8607,19 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="114"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="5"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="113" t="s">
+      <c r="B36" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="114"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="3"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
@@ -8707,16 +8707,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E21:E27"/>
+    <mergeCell ref="B16:C27"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="B28:C32"/>
+    <mergeCell ref="E29:E32"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B14:C15"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="B16:C27"/>
-    <mergeCell ref="D16:D20"/>
-    <mergeCell ref="B28:C32"/>
-    <mergeCell ref="E29:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8751,10 +8751,10 @@
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="74" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -8763,32 +8763,32 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="73"/>
-      <c r="C5" s="84"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="73"/>
-      <c r="C6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="2" t="s">
         <v>106</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="73"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="87"/>
       <c r="D7" s="23" t="s">
         <v>107</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="73"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -8797,24 +8797,24 @@
       <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="73"/>
-      <c r="C9" s="84"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="73"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="74" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -8823,26 +8823,26 @@
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="84"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="74"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
       <c r="D13" s="23" t="s">
         <v>115</v>
       </c>
       <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="74" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -8851,24 +8851,24 @@
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="73"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
       <c r="D16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="85"/>
+      <c r="C17" s="74" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="19" t="s">
@@ -8877,64 +8877,64 @@
       <c r="E17" s="19"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="73"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="74"/>
       <c r="D18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="73"/>
-      <c r="C19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="73"/>
-      <c r="C20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="73"/>
-      <c r="C21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="74"/>
       <c r="D21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="73"/>
-      <c r="C22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="74"/>
       <c r="D22" s="2" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="73"/>
-      <c r="C23" s="84"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="74"/>
       <c r="D23" s="2" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="73"/>
-      <c r="C24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="73"/>
-      <c r="C25" s="84" t="s">
+      <c r="B25" s="85"/>
+      <c r="C25" s="74" t="s">
         <v>50</v>
       </c>
       <c r="D25" s="19" t="s">
@@ -8943,55 +8943,55 @@
       <c r="E25" s="19"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="73"/>
-      <c r="C26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="74"/>
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="73"/>
-      <c r="C27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="74"/>
       <c r="D27" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="73"/>
-      <c r="C28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="73"/>
-      <c r="C29" s="84"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="2" t="s">
         <v>93</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="73"/>
-      <c r="C30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="74"/>
       <c r="D30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="74"/>
-      <c r="C31" s="85"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
       <c r="D31" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="23"/>
     </row>
     <row r="32" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="85" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="88" t="s">
@@ -9003,7 +9003,7 @@
       <c r="E32" s="19"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="73"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="88"/>
       <c r="D33" s="2" t="s">
         <v>55</v>
@@ -9011,7 +9011,7 @@
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="73"/>
+      <c r="B34" s="85"/>
       <c r="C34" s="88"/>
       <c r="D34" s="2" t="s">
         <v>95</v>
@@ -9019,7 +9019,7 @@
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="73"/>
+      <c r="B35" s="85"/>
       <c r="C35" s="88"/>
       <c r="D35" s="21" t="s">
         <v>108</v>
@@ -9027,7 +9027,7 @@
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
+      <c r="B36" s="85"/>
       <c r="C36" s="88"/>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -9035,7 +9035,7 @@
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="74"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="89"/>
       <c r="D37" s="23" t="s">
         <v>89</v>
@@ -9043,7 +9043,7 @@
       <c r="E37" s="23"/>
     </row>
     <row r="38" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73" t="s">
+      <c r="B38" s="85" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="88" t="s">
@@ -9053,31 +9053,31 @@
       <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="88"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
+      <c r="B40" s="85"/>
       <c r="C40" s="88"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="73"/>
+      <c r="B41" s="85"/>
       <c r="C41" s="88"/>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="73"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="88"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="74"/>
+      <c r="B43" s="86"/>
       <c r="C43" s="89"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
@@ -9312,242 +9312,242 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
       <c r="T21" t="s">
         <v>252</v>
@@ -9564,14 +9564,14 @@
     </row>
     <row r="22" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
       <c r="S22" t="s">
         <v>64</v>
@@ -9595,11 +9595,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -9960,8 +9960,8 @@
   </sheetPr>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:M31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10008,256 +10008,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>164</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>160</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10265,11 +10265,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -10502,6 +10502,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G21:I23"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="G16:I16"/>
@@ -10518,7 +10519,6 @@
     <mergeCell ref="F15:F20"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10582,254 +10582,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10837,11 +10837,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96" t="s">
         <v>162</v>
@@ -11059,14 +11059,6 @@
     <row r="35" spans="12:17" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:E22"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:J23"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:I6"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
@@ -11076,6 +11068,14 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I20"/>
     <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:E22"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:J23"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:I6"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11139,256 +11139,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>167</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>168</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79" t="s">
+      <c r="G21" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11396,11 +11396,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -11619,6 +11619,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -11629,13 +11636,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11651,7 +11651,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -11700,256 +11700,256 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11957,11 +11957,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -12181,6 +12181,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -12191,13 +12198,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12261,254 +12261,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79" t="s">
+      <c r="G3" s="80" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>176</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -12516,11 +12516,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -12730,6 +12730,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -12740,13 +12747,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12810,254 +12810,254 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="99"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="99"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="102"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="99"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="102"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="99"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
       <c r="J6" s="102"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="99"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="104" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
       <c r="J7" s="102"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="99"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="102"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="99"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="99"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="102"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="99"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="102"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="99"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="99"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="102"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="99"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="102"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="99"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="79" t="s">
+      <c r="G15" s="80" t="s">
         <v>182</v>
       </c>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="102"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="99"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
       <c r="J16" s="102"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="99"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
       <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="99"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="99"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
       <c r="J19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="99"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="102"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="99"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
       <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="99"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
       <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -13065,11 +13065,11 @@
       <c r="B23" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="96"/>
       <c r="G23" s="96"/>
       <c r="H23" s="96"/>
@@ -13291,6 +13291,13 @@
     <row r="37" spans="12:17" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:I23"/>
+    <mergeCell ref="C23:E23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A23"/>
     <mergeCell ref="B2:E22"/>
@@ -13301,13 +13308,6 @@
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G7:I14"/>
     <mergeCell ref="F15:F20"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:I23"/>
-    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
